--- a/exp2/case01/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/exp2/case01/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,55 +6,114 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_spearman_27" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_pearson_31" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_pearson_99" r:id="rId5" sheetId="3"/>
-    <sheet name="moderate_spearman_99" r:id="rId6" sheetId="4"/>
-    <sheet name="moderate_pearson_103" r:id="rId7" sheetId="5"/>
-    <sheet name="moderate_pearson_107" r:id="rId8" sheetId="6"/>
+    <sheet name="moderate_spearman_7" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_27" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_42" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_79" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_99" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="75">
+  <si>
+    <t>Correlation information for DiffScore - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Correlation matrix</t>
+  </si>
+  <si>
+    <t>DiffScore</t>
+  </si>
+  <si>
+    <t>Intrinsic Motivation</t>
+  </si>
+  <si>
+    <t>Matrix of t-test value</t>
+  </si>
+  <si>
+    <t>Probability of values (p-values)</t>
+  </si>
+  <si>
+    <t>Confidence intervals</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>DffSc-IntrM</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - Intrinsic Motivation in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - Intrinsic Motivation in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>NroUSP</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CLGroup</t>
+  </si>
+  <si>
+    <t>CLRole</t>
+  </si>
+  <si>
+    <t>PlayerRole</t>
+  </si>
+  <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 3</t>
+  </si>
+  <si>
+    <t>Grupo  Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 12</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Grupo Team 14</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
+  </si>
   <si>
     <t>Correlation information for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Correlation matrix</t>
-  </si>
-  <si>
     <t>NroNecessaryInteractions</t>
   </si>
   <si>
-    <t>Intrinsic Motivation</t>
-  </si>
-  <si>
-    <t>Matrix of t-test value</t>
-  </si>
-  <si>
-    <t>Probability of values (p-values)</t>
-  </si>
-  <si>
-    <t>Confidence intervals</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>NrNcI-IntrM</t>
   </si>
   <si>
@@ -64,24 +123,6 @@
     <t>Data full source for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>NroUSP</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CLGroup</t>
-  </si>
-  <si>
-    <t>CLRole</t>
-  </si>
-  <si>
-    <t>PlayerRole</t>
-  </si>
-  <si>
     <t>ont-gamified</t>
   </si>
   <si>
@@ -130,75 +171,69 @@
     <t>Grupo Artemis</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
     <t>Yee Achiever</t>
   </si>
   <si>
     <t>Yee Socializer</t>
   </si>
   <si>
-    <t>Correlation information for NroDesiredInteractions - Intrinsic Motivation in Apprentice using the method: pearson</t>
-  </si>
-  <si>
-    <t>NroDesiredInteractions</t>
-  </si>
-  <si>
-    <t>NrDsI-IntrM</t>
-  </si>
-  <si>
-    <t>Data source for NroDesiredInteractions - Intrinsic Motivation in Apprentice</t>
-  </si>
-  <si>
-    <t>Data full source for NroDesiredInteractions - Intrinsic Motivation in Apprentice</t>
-  </si>
-  <si>
-    <t>non-gamified</t>
-  </si>
-  <si>
-    <t>Grupo Team 12</t>
-  </si>
-  <si>
-    <t>Grupo Team 15</t>
+    <t>Correlation information for DiffScore - Interest/Enjoyment in non-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Interest/Enjoyment</t>
+  </si>
+  <si>
+    <t>DffSc-Int/E</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - Interest/Enjoyment in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - Interest/Enjoyment in non-gamified.Apprentice</t>
   </si>
   <si>
     <t>Grupo Team 5</t>
   </si>
   <si>
-    <t>Grupo Team 3</t>
+    <t>Grupo Team 11</t>
   </si>
   <si>
     <t>Grupo Team 7</t>
   </si>
   <si>
-    <t>Grupo Team 10</t>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 2</t>
   </si>
   <si>
     <t>Grupo Team 4</t>
   </si>
   <si>
-    <t>Grupo Team 14</t>
-  </si>
-  <si>
     <t>Grupo Team 16</t>
   </si>
   <si>
-    <t>Grupo Team 13</t>
-  </si>
-  <si>
     <t>Apprentice</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Correlation information for NroNecessaryInteractions - Perceived Choice in ont-gamified.Master using the method: pearson</t>
+    <t>Correlation information for DiffScore - Perceived Choice in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
   </si>
   <si>
+    <t>DffSc-PrcvC</t>
+  </si>
+  <si>
+    <t>Data source for DiffScore - Perceived Choice in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for DiffScore - Perceived Choice in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for NroNecessaryInteractions - Perceived Choice in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
     <t>NrNcI-PrcvC</t>
   </si>
   <si>
@@ -206,42 +241,6 @@
   </si>
   <si>
     <t>Data full source for NroNecessaryInteractions - Perceived Choice in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Correlation information for NroNecessaryInteractions - Perceived Choice in ont-gamified.Master using the method: spearman</t>
-  </si>
-  <si>
-    <t>Correlation information for NroDesiredInteractions - Perceived Choice in Apprentice using the method: pearson</t>
-  </si>
-  <si>
-    <t>NrDsI-PrcvC</t>
-  </si>
-  <si>
-    <t>Data source for NroDesiredInteractions - Perceived Choice in Apprentice</t>
-  </si>
-  <si>
-    <t>Data full source for NroDesiredInteractions - Perceived Choice in Apprentice</t>
-  </si>
-  <si>
-    <t>Grupo  Team 6</t>
-  </si>
-  <si>
-    <t>Grupo Team 11</t>
-  </si>
-  <si>
-    <t>Grupo Team 9</t>
-  </si>
-  <si>
-    <t>Grupo Team 2</t>
-  </si>
-  <si>
-    <t>Correlation information for NroDesiredInteractions - Perceived Choice in ont-gamified.Apprentice using the method: pearson</t>
-  </si>
-  <si>
-    <t>Data source for NroDesiredInteractions - Perceived Choice in ont-gamified.Apprentice</t>
-  </si>
-  <si>
-    <t>Data full source for NroDesiredInteractions - Perceived Choice in ont-gamified.Apprentice</t>
   </si>
 </sst>
 </file>
@@ -249,486 +248,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="445">
+  <fonts count="371">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3138,7 +2664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="841">
+  <cellXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3960,170 +3486,6 @@
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4184,7 +3546,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.559507983560959</v>
+        <v>-0.5428571428571428</v>
       </c>
     </row>
     <row r="7">
@@ -4192,10 +3554,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.559507983560959</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -4230,7 +3592,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-2.4339695571009647</v>
+        <v>-1.292786253135566</v>
       </c>
     </row>
     <row r="13">
@@ -4238,10 +3600,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-2.4339695571009647</v>
-      </c>
-      <c r="C13" t="n" s="52">
-        <v>1.710947035355221E8</v>
+        <v>-1.292786253135566</v>
+      </c>
+      <c r="C13" t="e" s="52">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -4276,7 +3638,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.03010580243002625</v>
+        <v>0.2657026239067053</v>
       </c>
     </row>
     <row r="19">
@@ -4284,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.03010580243002625</v>
+        <v>0.2657026239067053</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -4325,16 +3687,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.8330158608617559</v>
+        <v>-0.9402015149008094</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.559507983560959</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>-0.06622672136420692</v>
+        <v>0.48031069987352654</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.03010580243002625</v>
+        <v>0.2657026239067053</v>
       </c>
     </row>
     <row r="25">
@@ -4362,553 +3724,247 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>5.0</v>
+        <v>0.38055555555555465</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.06257576207595299</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>5.0</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>-0.1476179298406524</v>
+        <v>4.722222222222222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>3.0</v>
+        <v>0.4222222222222225</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>1.1427348776544457</v>
+        <v>5.777777777777778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>4.0</v>
+        <v>0.625</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.010251073065152789</v>
+        <v>4.444444444444445</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>5.0</v>
+        <v>0.45555555555555394</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>-0.4615556974693298</v>
+        <v>4.055555555555555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>5.0</v>
+        <v>0.6083333333333343</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>-0.11415196535446955</v>
+        <v>4.111111111111111</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B35" t="n" s="114">
-        <v>0.10029283693157723</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B36" t="n" s="114">
-        <v>0.3065045163473969</v>
+      <c r="A36" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B37" t="n" s="114">
-        <v>1.1427348776544457</v>
+      <c r="A37" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B38" t="n" s="114">
-        <v>-0.010251073065152789</v>
+      <c r="A38" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="114">
-        <v>0.025757254694158987</v>
+      <c r="A39" t="n" s="133">
+        <v>10181.0</v>
+      </c>
+      <c r="B39" t="n" s="134">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C39" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G39" t="n" s="139">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="H39" t="n" s="140">
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B40" t="n" s="114">
-        <v>0.5039843426371508</v>
+      <c r="A40" t="n" s="133">
+        <v>10188.0</v>
+      </c>
+      <c r="B40" t="n" s="134">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C40" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G40" t="n" s="139">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="H40" t="n" s="140">
+        <v>4.722222222222222</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B41" t="n" s="114">
-        <v>-0.4615556974693298</v>
+      <c r="A41" t="n" s="133">
+        <v>10191.0</v>
+      </c>
+      <c r="B41" t="n" s="134">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C41" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n" s="139">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="H41" t="n" s="140">
+        <v>5.777777777777778</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B42" t="n" s="114">
-        <v>0.5604913938471899</v>
+      <c r="A42" t="n" s="133">
+        <v>10219.0</v>
+      </c>
+      <c r="B42" t="n" s="134">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C42" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n" s="139">
+        <v>0.625</v>
+      </c>
+      <c r="H42" t="n" s="140">
+        <v>4.444444444444445</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B43" t="n" s="114">
-        <v>-0.08014022396140201</v>
+      <c r="A43" t="n" s="133">
+        <v>10226.0</v>
+      </c>
+      <c r="B43" t="n" s="134">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C43" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s" s="137">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s" s="138">
+        <v>29</v>
+      </c>
+      <c r="G43" t="n" s="139">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="H43" t="n" s="140">
+        <v>4.055555555555555</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="118">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s" s="132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="133">
-        <v>10169.0</v>
-      </c>
-      <c r="B48" t="n" s="134">
-        <v>1.0377538E7</v>
-      </c>
-      <c r="C48" t="s" s="135">
+      <c r="A44" t="n" s="133">
+        <v>10230.0</v>
+      </c>
+      <c r="B44" t="n" s="134">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C44" t="s" s="135">
         <v>21</v>
       </c>
-      <c r="D48" t="s" s="136">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F48" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G48" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H48" t="n" s="140">
-        <v>0.06257576207595299</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="133">
-        <v>10174.0</v>
-      </c>
-      <c r="B49" t="n" s="134">
-        <v>1.0276852E7</v>
-      </c>
-      <c r="C49" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G49" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H49" t="n" s="140">
-        <v>-0.1476179298406524</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="133">
-        <v>10175.0</v>
-      </c>
-      <c r="B50" t="n" s="134">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C50" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E50" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G50" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H50" t="n" s="140">
-        <v>1.1427348776544457</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="133">
-        <v>10184.0</v>
-      </c>
-      <c r="B51" t="n" s="134">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C51" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G51" t="n" s="139">
-        <v>4.0</v>
-      </c>
-      <c r="H51" t="n" s="140">
-        <v>-0.010251073065152789</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="133">
-        <v>10189.0</v>
-      </c>
-      <c r="B52" t="n" s="134">
-        <v>9363926.0</v>
-      </c>
-      <c r="C52" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G52" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H52" t="n" s="140">
-        <v>-0.4615556974693298</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="133">
-        <v>10193.0</v>
-      </c>
-      <c r="B53" t="n" s="134">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C53" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="136">
+      <c r="D44" t="s" s="136">
         <v>27</v>
       </c>
-      <c r="E53" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G53" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H53" t="n" s="140">
-        <v>-0.11415196535446955</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="133">
-        <v>10199.0</v>
-      </c>
-      <c r="B54" t="n" s="134">
-        <v>1.0276737E7</v>
-      </c>
-      <c r="C54" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="136">
+      <c r="E44" t="s" s="137">
         <v>28</v>
       </c>
-      <c r="E54" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G54" t="n" s="139">
-        <v>2.0</v>
-      </c>
-      <c r="H54" t="n" s="140">
-        <v>0.10029283693157723</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="133">
-        <v>10201.0</v>
-      </c>
-      <c r="B55" t="n" s="134">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C55" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="136">
+      <c r="F44" t="s" s="138">
         <v>29</v>
       </c>
-      <c r="E55" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G55" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H55" t="n" s="140">
-        <v>0.3065045163473969</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="133">
-        <v>10204.0</v>
-      </c>
-      <c r="B56" t="n" s="134">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C56" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="136">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G56" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="140">
-        <v>1.1427348776544457</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="133">
-        <v>10206.0</v>
-      </c>
-      <c r="B57" t="n" s="134">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C57" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="136">
-        <v>31</v>
-      </c>
-      <c r="E57" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G57" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H57" t="n" s="140">
-        <v>-0.010251073065152789</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="133">
-        <v>10213.0</v>
-      </c>
-      <c r="B58" t="n" s="134">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C58" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="136">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F58" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G58" t="n" s="139">
-        <v>2.0</v>
-      </c>
-      <c r="H58" t="n" s="140">
-        <v>0.025757254694158987</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="133">
-        <v>10215.0</v>
-      </c>
-      <c r="B59" t="n" s="134">
-        <v>9285227.0</v>
-      </c>
-      <c r="C59" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="136">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F59" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G59" t="n" s="139">
-        <v>2.0</v>
-      </c>
-      <c r="H59" t="n" s="140">
-        <v>0.5039843426371508</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="133">
-        <v>10218.0</v>
-      </c>
-      <c r="B60" t="n" s="134">
-        <v>9842913.0</v>
-      </c>
-      <c r="C60" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="136">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G60" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H60" t="n" s="140">
-        <v>-0.4615556974693298</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="133">
-        <v>10223.0</v>
-      </c>
-      <c r="B61" t="n" s="134">
-        <v>9795185.0</v>
-      </c>
-      <c r="C61" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="136">
-        <v>35</v>
-      </c>
-      <c r="E61" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G61" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H61" t="n" s="140">
-        <v>0.5604913938471899</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="133">
-        <v>10232.0</v>
-      </c>
-      <c r="B62" t="n" s="134">
-        <v>1.0276974E7</v>
-      </c>
-      <c r="C62" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="136">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G62" t="n" s="139">
-        <v>6.0</v>
-      </c>
-      <c r="H62" t="n" s="140">
-        <v>-0.08014022396140201</v>
+      <c r="G44" t="n" s="139">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="H44" t="n" s="140">
+        <v>4.111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -4937,7 +3993,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -4958,7 +4014,7 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="170">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="170">
         <v>4</v>
@@ -4966,13 +4022,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="166">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n" s="171">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>0.5810328688666155</v>
+        <v>-0.5369891895220408</v>
       </c>
     </row>
     <row r="7">
@@ -4980,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>0.5810328688666155</v>
+        <v>-0.5369891895220408</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -5004,7 +4060,7 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="190">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="190">
         <v>4</v>
@@ -5012,13 +4068,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="186">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B12" t="e" s="191">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>3.348510117822995</v>
+        <v>-2.2951244887222972</v>
       </c>
     </row>
     <row r="13">
@@ -5026,7 +4082,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>3.348510117822995</v>
+        <v>-2.2951244887222972</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -5050,7 +4106,7 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="210">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="210">
         <v>4</v>
@@ -5058,13 +4114,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="206">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n" s="211">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.0029069789723168427</v>
+        <v>0.03901006504189719</v>
       </c>
     </row>
     <row r="19">
@@ -5072,7 +4128,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.0029069789723168427</v>
+        <v>0.03901006504189719</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>0.0</v>
@@ -5110,19 +4166,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>0.23201813518821768</v>
+        <v>-0.8228913910400099</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>0.5810328688666155</v>
+        <v>-0.5369891895220408</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.7975049801616021</v>
+        <v>-0.034109049642621125</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.0029069789723168427</v>
+        <v>0.03901006504189719</v>
       </c>
     </row>
     <row r="25">
@@ -5137,12 +4193,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="252">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s" s="252">
         <v>4</v>
@@ -5150,859 +4206,553 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>0.5039843426371508</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>-0.18058836809245482</v>
+        <v>5.055555555555555</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>-0.010251073065152789</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>-0.24522198826993744</v>
+        <v>5.277777777777778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>-0.3703328490686314</v>
+        <v>4.555555555555555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="253">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B34" t="n" s="254">
-        <v>-0.04552718026191414</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="253">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="B35" t="n" s="254">
-        <v>0.3065045163473969</v>
+        <v>5.611111111111111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="253">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>0.10029283693157723</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="253">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>0.025757254694158987</v>
+        <v>6.722222222222222</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="253">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B38" t="n" s="254">
-        <v>0.06257576207595299</v>
+        <v>5.388888888888889</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="253">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B39" t="n" s="254">
-        <v>-0.40093977182104457</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="253">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B40" t="n" s="254">
-        <v>0.6209440162747972</v>
+        <v>6.111111111111111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="253">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B41" t="n" s="254">
-        <v>3.1637983458369217</v>
+        <v>4.388888888888889</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="253">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B42" t="n" s="254">
-        <v>0.40039274476376646</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="253">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="B43" t="n" s="254">
-        <v>0.5039843426371508</v>
+        <v>5.277777777777778</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="253">
-        <v>1.0</v>
-      </c>
-      <c r="B44" t="n" s="254">
-        <v>0.3524073503909451</v>
+      <c r="A44" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="B45" t="n" s="254">
-        <v>-0.1476179298406524</v>
+      <c r="A45" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="B46" t="n" s="254">
-        <v>-0.1476179298406524</v>
+      <c r="A46" t="s" s="258">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="B47" t="n" s="254">
-        <v>-0.7893952374785932</v>
+      <c r="A47" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s" s="272">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s" s="272">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s" s="272">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s" s="272">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s" s="272">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="B48" t="n" s="254">
-        <v>-0.3394886004737867</v>
+      <c r="A48" t="n" s="273">
+        <v>10169.0</v>
+      </c>
+      <c r="B48" t="n" s="274">
+        <v>1.0377538E7</v>
+      </c>
+      <c r="C48" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s" s="276">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G48" t="n" s="279">
+        <v>5.0</v>
+      </c>
+      <c r="H48" t="n" s="280">
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="B49" t="n" s="254">
-        <v>1.7311269792905206</v>
+      <c r="A49" t="n" s="273">
+        <v>10174.0</v>
+      </c>
+      <c r="B49" t="n" s="274">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C49" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s" s="276">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G49" t="n" s="279">
+        <v>5.0</v>
+      </c>
+      <c r="H49" t="n" s="280">
+        <v>5.055555555555555</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="B50" t="n" s="254">
-        <v>-0.5513878799187998</v>
+      <c r="A50" t="n" s="273">
+        <v>10175.0</v>
+      </c>
+      <c r="B50" t="n" s="274">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C50" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s" s="276">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s" s="278">
+        <v>52</v>
+      </c>
+      <c r="G50" t="n" s="279">
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="n" s="280">
+        <v>6.5</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n" s="253">
+      <c r="A51" t="n" s="273">
+        <v>10184.0</v>
+      </c>
+      <c r="B51" t="n" s="274">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C51" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s" s="276">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s" s="278">
+        <v>52</v>
+      </c>
+      <c r="G51" t="n" s="279">
+        <v>4.0</v>
+      </c>
+      <c r="H51" t="n" s="280">
+        <v>5.277777777777778</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="273">
+        <v>10189.0</v>
+      </c>
+      <c r="B52" t="n" s="274">
+        <v>9363926.0</v>
+      </c>
+      <c r="C52" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s" s="276">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s" s="278">
+        <v>52</v>
+      </c>
+      <c r="G52" t="n" s="279">
+        <v>5.0</v>
+      </c>
+      <c r="H52" t="n" s="280">
+        <v>4.555555555555555</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="273">
+        <v>10193.0</v>
+      </c>
+      <c r="B53" t="n" s="274">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C53" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s" s="276">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G53" t="n" s="279">
+        <v>5.0</v>
+      </c>
+      <c r="H53" t="n" s="280">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="273">
+        <v>10199.0</v>
+      </c>
+      <c r="B54" t="n" s="274">
+        <v>1.0276737E7</v>
+      </c>
+      <c r="C54" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s" s="276">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G54" t="n" s="279">
         <v>2.0</v>
       </c>
-      <c r="B51" t="n" s="254">
-        <v>-0.8194512682409656</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="253">
-        <v>0.0</v>
-      </c>
-      <c r="B52" t="n" s="254">
-        <v>-0.6108479469757275</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>1</v>
+      <c r="H54" t="n" s="280">
+        <v>5.611111111111111</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="258">
+      <c r="A55" t="n" s="273">
+        <v>10201.0</v>
+      </c>
+      <c r="B55" t="n" s="274">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C55" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s" s="276">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G55" t="n" s="279">
+        <v>3.0</v>
+      </c>
+      <c r="H55" t="n" s="280">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="273">
+        <v>10204.0</v>
+      </c>
+      <c r="B56" t="n" s="274">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C56" t="s" s="275">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s" s="276">
         <v>44</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="272">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s" s="272">
-        <v>16</v>
-      </c>
-      <c r="C56" t="s" s="272">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s" s="272">
-        <v>18</v>
-      </c>
-      <c r="E56" t="s" s="272">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s" s="272">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s" s="272">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s" s="272">
-        <v>4</v>
+      <c r="E56" t="s" s="277">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s" s="278">
+        <v>51</v>
+      </c>
+      <c r="G56" t="n" s="279">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="n" s="280">
+        <v>6.722222222222222</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="273">
-        <v>10170.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B57" t="n" s="274">
-        <v>1.0260351E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C57" t="s" s="275">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s" s="276">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s" s="277">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s" s="278">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G57" t="n" s="279">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H57" t="n" s="280">
-        <v>0.5039843426371508</v>
+        <v>5.388888888888889</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="273">
-        <v>10176.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B58" t="n" s="274">
-        <v>1.0276949E7</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C58" t="s" s="275">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s" s="276">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s" s="277">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s" s="278">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G58" t="n" s="279">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H58" t="n" s="280">
-        <v>-0.18058836809245482</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="273">
-        <v>10178.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B59" t="n" s="274">
-        <v>8656201.0</v>
+        <v>9285227.0</v>
       </c>
       <c r="C59" t="s" s="275">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s" s="276">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s" s="277">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s" s="278">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G59" t="n" s="279">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H59" t="n" s="280">
-        <v>-0.010251073065152789</v>
+        <v>6.111111111111111</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="273">
-        <v>10183.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B60" t="n" s="274">
-        <v>1.035203E7</v>
+        <v>9842913.0</v>
       </c>
       <c r="C60" t="s" s="275">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s" s="276">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s" s="277">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s" s="278">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G60" t="n" s="279">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H60" t="n" s="280">
-        <v>-0.24522198826993744</v>
+        <v>4.388888888888889</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="273">
-        <v>10185.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B61" t="n" s="274">
-        <v>1.027696E7</v>
+        <v>9795185.0</v>
       </c>
       <c r="C61" t="s" s="275">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s" s="276">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s" s="277">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s" s="278">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G61" t="n" s="279">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H61" t="n" s="280">
-        <v>-0.3703328490686314</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="273">
-        <v>10186.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B62" t="n" s="274">
-        <v>1.0310551E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C62" t="s" s="275">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s" s="276">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s" s="277">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s" s="278">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G62" t="n" s="279">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H62" t="n" s="280">
-        <v>-0.04552718026191414</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n" s="273">
-        <v>10187.0</v>
-      </c>
-      <c r="B63" t="n" s="274">
-        <v>9790781.0</v>
-      </c>
-      <c r="C63" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D63" t="s" s="276">
-        <v>47</v>
-      </c>
-      <c r="E63" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F63" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G63" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H63" t="n" s="280">
-        <v>0.3065045163473969</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="273">
-        <v>10190.0</v>
-      </c>
-      <c r="B64" t="n" s="274">
-        <v>1.0276907E7</v>
-      </c>
-      <c r="C64" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s" s="276">
-        <v>33</v>
-      </c>
-      <c r="E64" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F64" t="s" s="278">
-        <v>39</v>
-      </c>
-      <c r="G64" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H64" t="n" s="280">
-        <v>0.10029283693157723</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n" s="273">
-        <v>10192.0</v>
-      </c>
-      <c r="B65" t="n" s="274">
-        <v>1.0276682E7</v>
-      </c>
-      <c r="C65" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D65" t="s" s="276">
-        <v>48</v>
-      </c>
-      <c r="E65" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F65" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G65" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H65" t="n" s="280">
-        <v>0.025757254694158987</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="273">
-        <v>10195.0</v>
-      </c>
-      <c r="B66" t="n" s="274">
-        <v>1.0351971E7</v>
-      </c>
-      <c r="C66" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D66" t="s" s="276">
-        <v>23</v>
-      </c>
-      <c r="E66" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F66" t="s" s="278">
-        <v>38</v>
-      </c>
-      <c r="G66" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H66" t="n" s="280">
-        <v>0.06257576207595299</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="273">
-        <v>10196.0</v>
-      </c>
-      <c r="B67" t="n" s="274">
-        <v>1.0310655E7</v>
-      </c>
-      <c r="C67" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D67" t="s" s="276">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F67" t="s" s="278">
-        <v>38</v>
-      </c>
-      <c r="G67" t="n" s="279">
-        <v>1.0</v>
-      </c>
-      <c r="H67" t="n" s="280">
-        <v>-0.40093977182104457</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="273">
-        <v>10197.0</v>
-      </c>
-      <c r="B68" t="n" s="274">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C68" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D68" t="s" s="276">
-        <v>28</v>
-      </c>
-      <c r="E68" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F68" t="s" s="278">
-        <v>38</v>
-      </c>
-      <c r="G68" t="n" s="279">
-        <v>1.0</v>
-      </c>
-      <c r="H68" t="n" s="280">
-        <v>0.6209440162747972</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="273">
-        <v>10198.0</v>
-      </c>
-      <c r="B69" t="n" s="274">
-        <v>1.0310888E7</v>
-      </c>
-      <c r="C69" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D69" t="s" s="276">
-        <v>25</v>
-      </c>
-      <c r="E69" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F69" t="s" s="278">
-        <v>39</v>
-      </c>
-      <c r="G69" t="n" s="279">
-        <v>4.0</v>
-      </c>
-      <c r="H69" t="n" s="280">
-        <v>3.1637983458369217</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="273">
-        <v>10200.0</v>
-      </c>
-      <c r="B70" t="n" s="274">
-        <v>9795272.0</v>
-      </c>
-      <c r="C70" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D70" t="s" s="276">
-        <v>26</v>
-      </c>
-      <c r="E70" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F70" t="s" s="278">
-        <v>39</v>
-      </c>
-      <c r="G70" t="n" s="279">
-        <v>1.0</v>
-      </c>
-      <c r="H70" t="n" s="280">
-        <v>0.40039274476376646</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="273">
-        <v>10203.0</v>
-      </c>
-      <c r="B71" t="n" s="274">
-        <v>9921470.0</v>
-      </c>
-      <c r="C71" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D71" t="s" s="276">
-        <v>49</v>
-      </c>
-      <c r="E71" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F71" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G71" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H71" t="n" s="280">
-        <v>0.5039843426371508</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n" s="273">
-        <v>10208.0</v>
-      </c>
-      <c r="B72" t="n" s="274">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C72" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D72" t="s" s="276">
-        <v>50</v>
-      </c>
-      <c r="E72" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F72" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G72" t="n" s="279">
-        <v>1.0</v>
-      </c>
-      <c r="H72" t="n" s="280">
-        <v>0.3524073503909451</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="273">
-        <v>10221.0</v>
-      </c>
-      <c r="B73" t="n" s="274">
-        <v>9082496.0</v>
-      </c>
-      <c r="C73" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D73" t="s" s="276">
-        <v>30</v>
-      </c>
-      <c r="E73" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F73" t="s" s="278">
-        <v>38</v>
-      </c>
-      <c r="G73" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H73" t="n" s="280">
-        <v>-0.1476179298406524</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="273">
-        <v>10224.0</v>
-      </c>
-      <c r="B74" t="n" s="274">
-        <v>9368772.0</v>
-      </c>
-      <c r="C74" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D74" t="s" s="276">
-        <v>51</v>
-      </c>
-      <c r="E74" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F74" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G74" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H74" t="n" s="280">
-        <v>-0.1476179298406524</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="273">
-        <v>10227.0</v>
-      </c>
-      <c r="B75" t="n" s="274">
-        <v>9274382.0</v>
-      </c>
-      <c r="C75" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D75" t="s" s="276">
-        <v>52</v>
-      </c>
-      <c r="E75" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F75" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G75" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H75" t="n" s="280">
-        <v>-0.7893952374785932</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n" s="273">
-        <v>10228.0</v>
-      </c>
-      <c r="B76" t="n" s="274">
-        <v>1.0310492E7</v>
-      </c>
-      <c r="C76" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D76" t="s" s="276">
-        <v>53</v>
-      </c>
-      <c r="E76" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F76" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G76" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H76" t="n" s="280">
-        <v>-0.3394886004737867</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="273">
-        <v>10231.0</v>
-      </c>
-      <c r="B77" t="n" s="274">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C77" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D77" t="s" s="276">
-        <v>29</v>
-      </c>
-      <c r="E77" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F77" t="s" s="278">
-        <v>38</v>
-      </c>
-      <c r="G77" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H77" t="n" s="280">
-        <v>1.7311269792905206</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="273">
-        <v>10233.0</v>
-      </c>
-      <c r="B78" t="n" s="274">
-        <v>9805320.0</v>
-      </c>
-      <c r="C78" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D78" t="s" s="276">
-        <v>54</v>
-      </c>
-      <c r="E78" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F78" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G78" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H78" t="n" s="280">
-        <v>-0.5513878799187998</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="273">
-        <v>10238.0</v>
-      </c>
-      <c r="B79" t="n" s="274">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C79" t="s" s="275">
-        <v>45</v>
-      </c>
-      <c r="D79" t="s" s="276">
-        <v>55</v>
-      </c>
-      <c r="E79" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F79" t="s" s="278">
-        <v>57</v>
-      </c>
-      <c r="G79" t="n" s="279">
-        <v>2.0</v>
-      </c>
-      <c r="H79" t="n" s="280">
-        <v>-0.8194512682409656</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="273">
-        <v>10240.0</v>
-      </c>
-      <c r="B80" t="n" s="274">
-        <v>1.0276654E7</v>
-      </c>
-      <c r="C80" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D80" t="s" s="276">
-        <v>31</v>
-      </c>
-      <c r="E80" t="s" s="277">
-        <v>56</v>
-      </c>
-      <c r="F80" t="s" s="278">
-        <v>38</v>
-      </c>
-      <c r="G80" t="n" s="279">
-        <v>0.0</v>
-      </c>
-      <c r="H80" t="n" s="280">
-        <v>-0.6108479469757275</v>
+        <v>5.277777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -6031,7 +4781,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -6055,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -6066,15 +4816,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>-0.5678611054041851</v>
+        <v>0.5272012675161055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>-0.5678611054041851</v>
+        <v>0.5272012675161055</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -6101,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -6112,15 +4862,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>-2.487415453092184</v>
+        <v>1.6414935328322007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>-2.487415453092184</v>
+        <v>1.6414935328322007</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -6147,7 +4897,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -6158,15 +4908,15 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.027227042481056785</v>
+        <v>0.14469933213386188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.027227042481056785</v>
+        <v>0.14469933213386188</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>0.0</v>
@@ -6204,19 +4954,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.8367254229762456</v>
+        <v>-0.21068760956780738</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>-0.5678611054041851</v>
+        <v>0.5272012675161055</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>-0.07840615200938507</v>
+        <v>0.8823792345636607</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.027227042481056785</v>
+        <v>0.14469933213386188</v>
       </c>
     </row>
     <row r="25">
@@ -6231,7 +4981,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
@@ -6239,558 +4989,354 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>5.0</v>
+        <v>3.1722222222222225</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>-0.030134652759936636</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>5.0</v>
+        <v>2.243055555555557</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>-0.4482465433985139</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>3.0</v>
+        <v>3.126388888888889</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>1.7561459858348463</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="B32" t="n" s="394">
         <v>4.0</v>
-      </c>
-      <c r="B32" t="n" s="394">
-        <v>0.1251438438279301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>5.0</v>
+        <v>2.947222222222222</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>-0.1750174456725396</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>5.0</v>
+        <v>2.1827380952380953</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>-0.31343622428089174</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="393">
-        <v>2.0</v>
+        <v>1.1638888888888896</v>
       </c>
       <c r="B35" t="n" s="394">
-        <v>2.7505191639644373</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="393">
-        <v>3.0</v>
+        <v>2.008333333333333</v>
       </c>
       <c r="B36" t="n" s="394">
-        <v>0.2967962112053458</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="393">
-        <v>3.0</v>
+        <v>2.1833333333333336</v>
       </c>
       <c r="B37" t="n" s="394">
-        <v>0.8943229174768339</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="393">
-        <v>3.0</v>
-      </c>
-      <c r="B38" t="n" s="394">
-        <v>0.8943229174768339</v>
+      <c r="A38" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="393">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="394">
-        <v>-0.581728733226766</v>
+      <c r="A39" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="393">
-        <v>2.0</v>
-      </c>
-      <c r="B40" t="n" s="394">
-        <v>0.8943229174768339</v>
+      <c r="A40" t="s" s="398">
+        <v>57</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="393">
-        <v>5.0</v>
-      </c>
-      <c r="B41" t="n" s="394">
-        <v>-0.030134652759936636</v>
+      <c r="A41" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="412">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s" s="412">
+        <v>54</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="393">
-        <v>5.0</v>
-      </c>
-      <c r="B42" t="n" s="394">
-        <v>0.4950446231798232</v>
+      <c r="A42" t="n" s="413">
+        <v>10171.0</v>
+      </c>
+      <c r="B42" t="n" s="414">
+        <v>698531.0</v>
+      </c>
+      <c r="C42" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="416">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s" s="417">
+        <v>65</v>
+      </c>
+      <c r="F42" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n" s="419">
+        <v>3.1722222222222225</v>
+      </c>
+      <c r="H42" t="n" s="420">
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="393">
-        <v>6.0</v>
-      </c>
-      <c r="B43" t="n" s="394">
-        <v>-0.030134652759936636</v>
+      <c r="A43" t="n" s="413">
+        <v>10185.0</v>
+      </c>
+      <c r="B43" t="n" s="414">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C43" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="416">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s" s="417">
+        <v>65</v>
+      </c>
+      <c r="F43" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G43" t="n" s="419">
+        <v>2.243055555555557</v>
+      </c>
+      <c r="H43" t="n" s="420">
+        <v>4.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
+      <c r="A44" t="n" s="413">
+        <v>10192.0</v>
+      </c>
+      <c r="B44" t="n" s="414">
+        <v>1.0276682E7</v>
+      </c>
+      <c r="C44" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="416">
+        <v>58</v>
+      </c>
+      <c r="E44" t="s" s="417">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G44" t="n" s="419">
+        <v>3.126388888888889</v>
+      </c>
+      <c r="H44" t="n" s="420">
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
+      <c r="A45" t="n" s="413">
+        <v>10202.0</v>
+      </c>
+      <c r="B45" t="n" s="414">
+        <v>1.0277036E7</v>
+      </c>
+      <c r="C45" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="416">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s" s="417">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G45" t="n" s="419">
+        <v>1.0049603174603172</v>
+      </c>
+      <c r="H45" t="n" s="420">
+        <v>4.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="398">
-        <v>62</v>
+      <c r="A46" t="n" s="413">
+        <v>10208.0</v>
+      </c>
+      <c r="B46" t="n" s="414">
+        <v>1.0276932E7</v>
+      </c>
+      <c r="C46" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="416">
+        <v>60</v>
+      </c>
+      <c r="E46" t="s" s="417">
+        <v>65</v>
+      </c>
+      <c r="F46" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G46" t="n" s="419">
+        <v>2.947222222222222</v>
+      </c>
+      <c r="H46" t="n" s="420">
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="412">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="412">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="412">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="412">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="412">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="412">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="412">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s" s="412">
-        <v>59</v>
+      <c r="A47" t="n" s="413">
+        <v>10210.0</v>
+      </c>
+      <c r="B47" t="n" s="414">
+        <v>1.0277015E7</v>
+      </c>
+      <c r="C47" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="416">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s" s="417">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s" s="418">
+        <v>29</v>
+      </c>
+      <c r="G47" t="n" s="419">
+        <v>2.1827380952380953</v>
+      </c>
+      <c r="H47" t="n" s="420">
+        <v>3.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="413">
-        <v>10169.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B48" t="n" s="414">
-        <v>1.0377538E7</v>
+        <v>9760151.0</v>
       </c>
       <c r="C48" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="416">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s" s="417">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s" s="418">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G48" t="n" s="419">
-        <v>5.0</v>
+        <v>1.1638888888888896</v>
       </c>
       <c r="H48" t="n" s="420">
-        <v>-0.030134652759936636</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="413">
-        <v>10174.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B49" t="n" s="414">
-        <v>1.0276852E7</v>
+        <v>9274382.0</v>
       </c>
       <c r="C49" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D49" t="s" s="416">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s" s="417">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s" s="418">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G49" t="n" s="419">
-        <v>5.0</v>
+        <v>2.008333333333333</v>
       </c>
       <c r="H49" t="n" s="420">
-        <v>-0.4482465433985139</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="413">
-        <v>10175.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B50" t="n" s="414">
-        <v>1.03107E7</v>
+        <v>9805320.0</v>
       </c>
       <c r="C50" t="s" s="415">
         <v>21</v>
       </c>
       <c r="D50" t="s" s="416">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E50" t="s" s="417">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F50" t="s" s="418">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G50" t="n" s="419">
-        <v>3.0</v>
+        <v>2.1833333333333336</v>
       </c>
       <c r="H50" t="n" s="420">
-        <v>1.7561459858348463</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="413">
-        <v>10184.0</v>
-      </c>
-      <c r="B51" t="n" s="414">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C51" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="416">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G51" t="n" s="419">
-        <v>4.0</v>
-      </c>
-      <c r="H51" t="n" s="420">
-        <v>0.1251438438279301</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="413">
-        <v>10189.0</v>
-      </c>
-      <c r="B52" t="n" s="414">
-        <v>9363926.0</v>
-      </c>
-      <c r="C52" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="416">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G52" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H52" t="n" s="420">
-        <v>-0.1750174456725396</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="413">
-        <v>10193.0</v>
-      </c>
-      <c r="B53" t="n" s="414">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C53" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="416">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G53" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H53" t="n" s="420">
-        <v>-0.31343622428089174</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="413">
-        <v>10199.0</v>
-      </c>
-      <c r="B54" t="n" s="414">
-        <v>1.0276737E7</v>
-      </c>
-      <c r="C54" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="416">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G54" t="n" s="419">
-        <v>2.0</v>
-      </c>
-      <c r="H54" t="n" s="420">
-        <v>2.7505191639644373</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="413">
-        <v>10201.0</v>
-      </c>
-      <c r="B55" t="n" s="414">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C55" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="416">
-        <v>29</v>
-      </c>
-      <c r="E55" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G55" t="n" s="419">
-        <v>3.0</v>
-      </c>
-      <c r="H55" t="n" s="420">
-        <v>0.2967962112053458</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="413">
-        <v>10204.0</v>
-      </c>
-      <c r="B56" t="n" s="414">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C56" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="416">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G56" t="n" s="419">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="420">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="413">
-        <v>10206.0</v>
-      </c>
-      <c r="B57" t="n" s="414">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C57" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="416">
-        <v>31</v>
-      </c>
-      <c r="E57" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G57" t="n" s="419">
-        <v>3.0</v>
-      </c>
-      <c r="H57" t="n" s="420">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="413">
-        <v>10213.0</v>
-      </c>
-      <c r="B58" t="n" s="414">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C58" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="416">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F58" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G58" t="n" s="419">
-        <v>2.0</v>
-      </c>
-      <c r="H58" t="n" s="420">
-        <v>-0.581728733226766</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="413">
-        <v>10215.0</v>
-      </c>
-      <c r="B59" t="n" s="414">
-        <v>9285227.0</v>
-      </c>
-      <c r="C59" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="416">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F59" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G59" t="n" s="419">
-        <v>2.0</v>
-      </c>
-      <c r="H59" t="n" s="420">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="413">
-        <v>10218.0</v>
-      </c>
-      <c r="B60" t="n" s="414">
-        <v>9842913.0</v>
-      </c>
-      <c r="C60" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="416">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G60" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H60" t="n" s="420">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="413">
-        <v>10223.0</v>
-      </c>
-      <c r="B61" t="n" s="414">
-        <v>9795185.0</v>
-      </c>
-      <c r="C61" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="416">
-        <v>35</v>
-      </c>
-      <c r="E61" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G61" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H61" t="n" s="420">
-        <v>0.4950446231798232</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="413">
-        <v>10232.0</v>
-      </c>
-      <c r="B62" t="n" s="414">
-        <v>1.0276974E7</v>
-      </c>
-      <c r="C62" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="416">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G62" t="n" s="419">
-        <v>6.0</v>
-      </c>
-      <c r="H62" t="n" s="420">
-        <v>-0.030134652759936636</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -6819,7 +5365,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="422">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -6843,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="450">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -6854,15 +5400,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="452">
-        <v>-0.5083745198465075</v>
+        <v>-0.5428571428571428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="446">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B7" t="n" s="451">
-        <v>-0.5083745198465075</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="C7" t="n" s="452">
         <v>1.0</v>
@@ -6889,7 +5435,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="470">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -6900,15 +5446,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="472">
-        <v>-2.1285490666233198</v>
+        <v>-1.292786253135566</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="466">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B13" t="n" s="471">
-        <v>-2.1285490666233198</v>
+        <v>-1.292786253135566</v>
       </c>
       <c r="C13" t="e" s="472">
         <v>#DIV/0!</v>
@@ -6935,7 +5481,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="490">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
@@ -6946,15 +5492,15 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="492">
-        <v>0.05298934508655684</v>
+        <v>0.2657026239067053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="486">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B19" t="n" s="491">
-        <v>0.05298934508655684</v>
+        <v>0.2657026239067053</v>
       </c>
       <c r="C19" t="n" s="492">
         <v>0.0</v>
@@ -6992,19 +5538,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="506">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B24" t="n" s="511">
-        <v>-0.809758849020103</v>
+        <v>-0.9402015149008094</v>
       </c>
       <c r="C24" t="n" s="512">
-        <v>-0.5083745198465075</v>
+        <v>-0.5428571428571428</v>
       </c>
       <c r="D24" t="n" s="513">
-        <v>0.005257485770756133</v>
+        <v>0.48031069987352654</v>
       </c>
       <c r="E24" t="n" s="514">
-        <v>0.05298934508655684</v>
+        <v>0.2657026239067053</v>
       </c>
     </row>
     <row r="25">
@@ -7019,7 +5565,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="518">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -7027,558 +5573,252 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="532">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="533">
-        <v>5.0</v>
+        <v>0.38055555555555465</v>
       </c>
       <c r="B29" t="n" s="534">
-        <v>-0.030134652759936636</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="533">
-        <v>5.0</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="B30" t="n" s="534">
-        <v>-0.4482465433985139</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="533">
-        <v>3.0</v>
+        <v>0.4222222222222225</v>
       </c>
       <c r="B31" t="n" s="534">
-        <v>1.7561459858348463</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="533">
-        <v>4.0</v>
+        <v>0.625</v>
       </c>
       <c r="B32" t="n" s="534">
-        <v>0.1251438438279301</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="533">
-        <v>5.0</v>
+        <v>0.45555555555555394</v>
       </c>
       <c r="B33" t="n" s="534">
-        <v>-0.1750174456725396</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="533">
-        <v>5.0</v>
+        <v>0.6083333333333343</v>
       </c>
       <c r="B34" t="n" s="534">
-        <v>-0.31343622428089174</v>
+        <v>4.875</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="533">
-        <v>2.0</v>
-      </c>
-      <c r="B35" t="n" s="534">
-        <v>2.7505191639644373</v>
+      <c r="A35" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="533">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="538">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="552">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s" s="552">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="553">
+        <v>10181.0</v>
+      </c>
+      <c r="B39" t="n" s="554">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C39" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="556">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s" s="558">
+        <v>29</v>
+      </c>
+      <c r="G39" t="n" s="559">
+        <v>0.38055555555555465</v>
+      </c>
+      <c r="H39" t="n" s="560">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="553">
+        <v>10188.0</v>
+      </c>
+      <c r="B40" t="n" s="554">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C40" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="556">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s" s="558">
+        <v>29</v>
+      </c>
+      <c r="G40" t="n" s="559">
+        <v>0.5333333333333332</v>
+      </c>
+      <c r="H40" t="n" s="560">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="553">
+        <v>10191.0</v>
+      </c>
+      <c r="B41" t="n" s="554">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C41" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="556">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s" s="558">
+        <v>29</v>
+      </c>
+      <c r="G41" t="n" s="559">
+        <v>0.4222222222222225</v>
+      </c>
+      <c r="H41" t="n" s="560">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="553">
+        <v>10219.0</v>
+      </c>
+      <c r="B42" t="n" s="554">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C42" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="556">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s" s="558">
+        <v>29</v>
+      </c>
+      <c r="G42" t="n" s="559">
+        <v>0.625</v>
+      </c>
+      <c r="H42" t="n" s="560">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="553">
+        <v>10226.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>1.0310342E7</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>29</v>
+      </c>
+      <c r="G43" t="n" s="559">
+        <v>0.45555555555555394</v>
+      </c>
+      <c r="H43" t="n" s="560">
         <v>3.0</v>
       </c>
-      <c r="B36" t="n" s="534">
-        <v>0.2967962112053458</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="533">
-        <v>3.0</v>
-      </c>
-      <c r="B37" t="n" s="534">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="533">
-        <v>3.0</v>
-      </c>
-      <c r="B38" t="n" s="534">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="533">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="534">
-        <v>-0.581728733226766</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="533">
-        <v>2.0</v>
-      </c>
-      <c r="B40" t="n" s="534">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="533">
-        <v>5.0</v>
-      </c>
-      <c r="B41" t="n" s="534">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="533">
-        <v>5.0</v>
-      </c>
-      <c r="B42" t="n" s="534">
-        <v>0.4950446231798232</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="533">
-        <v>6.0</v>
-      </c>
-      <c r="B43" t="n" s="534">
-        <v>-0.030134652759936636</v>
-      </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="538">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="552">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="552">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="552">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="552">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="552">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="552">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="552">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s" s="552">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="553">
-        <v>10169.0</v>
-      </c>
-      <c r="B48" t="n" s="554">
-        <v>1.0377538E7</v>
-      </c>
-      <c r="C48" t="s" s="555">
+      <c r="A44" t="n" s="553">
+        <v>10230.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>1.0351992E7</v>
+      </c>
+      <c r="C44" t="s" s="555">
         <v>21</v>
       </c>
-      <c r="D48" t="s" s="556">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F48" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G48" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H48" t="n" s="560">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="553">
-        <v>10174.0</v>
-      </c>
-      <c r="B49" t="n" s="554">
-        <v>1.0276852E7</v>
-      </c>
-      <c r="C49" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="556">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G49" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H49" t="n" s="560">
-        <v>-0.4482465433985139</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="553">
-        <v>10175.0</v>
-      </c>
-      <c r="B50" t="n" s="554">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C50" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="556">
-        <v>24</v>
-      </c>
-      <c r="E50" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s" s="558">
-        <v>39</v>
-      </c>
-      <c r="G50" t="n" s="559">
-        <v>3.0</v>
-      </c>
-      <c r="H50" t="n" s="560">
-        <v>1.7561459858348463</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="553">
-        <v>10184.0</v>
-      </c>
-      <c r="B51" t="n" s="554">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C51" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="556">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s" s="558">
-        <v>39</v>
-      </c>
-      <c r="G51" t="n" s="559">
-        <v>4.0</v>
-      </c>
-      <c r="H51" t="n" s="560">
-        <v>0.1251438438279301</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="553">
-        <v>10189.0</v>
-      </c>
-      <c r="B52" t="n" s="554">
-        <v>9363926.0</v>
-      </c>
-      <c r="C52" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="556">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s" s="558">
-        <v>39</v>
-      </c>
-      <c r="G52" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H52" t="n" s="560">
-        <v>-0.1750174456725396</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="553">
-        <v>10193.0</v>
-      </c>
-      <c r="B53" t="n" s="554">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C53" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="556">
+      <c r="D44" t="s" s="556">
         <v>27</v>
       </c>
-      <c r="E53" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G53" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H53" t="n" s="560">
-        <v>-0.31343622428089174</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="553">
-        <v>10199.0</v>
-      </c>
-      <c r="B54" t="n" s="554">
-        <v>1.0276737E7</v>
-      </c>
-      <c r="C54" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="556">
+      <c r="E44" t="s" s="557">
         <v>28</v>
       </c>
-      <c r="E54" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G54" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H54" t="n" s="560">
-        <v>2.7505191639644373</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="553">
-        <v>10201.0</v>
-      </c>
-      <c r="B55" t="n" s="554">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C55" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="556">
+      <c r="F44" t="s" s="558">
         <v>29</v>
       </c>
-      <c r="E55" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G55" t="n" s="559">
-        <v>3.0</v>
-      </c>
-      <c r="H55" t="n" s="560">
-        <v>0.2967962112053458</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="553">
-        <v>10204.0</v>
-      </c>
-      <c r="B56" t="n" s="554">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C56" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="556">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G56" t="n" s="559">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="560">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="553">
-        <v>10206.0</v>
-      </c>
-      <c r="B57" t="n" s="554">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C57" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="556">
-        <v>31</v>
-      </c>
-      <c r="E57" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G57" t="n" s="559">
-        <v>3.0</v>
-      </c>
-      <c r="H57" t="n" s="560">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="553">
-        <v>10213.0</v>
-      </c>
-      <c r="B58" t="n" s="554">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C58" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="556">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F58" t="s" s="558">
-        <v>39</v>
-      </c>
-      <c r="G58" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H58" t="n" s="560">
-        <v>-0.581728733226766</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="553">
-        <v>10215.0</v>
-      </c>
-      <c r="B59" t="n" s="554">
-        <v>9285227.0</v>
-      </c>
-      <c r="C59" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="556">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F59" t="s" s="558">
-        <v>39</v>
-      </c>
-      <c r="G59" t="n" s="559">
-        <v>2.0</v>
-      </c>
-      <c r="H59" t="n" s="560">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="553">
-        <v>10218.0</v>
-      </c>
-      <c r="B60" t="n" s="554">
-        <v>9842913.0</v>
-      </c>
-      <c r="C60" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="556">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G60" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H60" t="n" s="560">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="553">
-        <v>10223.0</v>
-      </c>
-      <c r="B61" t="n" s="554">
-        <v>9795185.0</v>
-      </c>
-      <c r="C61" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="556">
-        <v>35</v>
-      </c>
-      <c r="E61" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G61" t="n" s="559">
-        <v>5.0</v>
-      </c>
-      <c r="H61" t="n" s="560">
-        <v>0.4950446231798232</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="553">
-        <v>10232.0</v>
-      </c>
-      <c r="B62" t="n" s="554">
-        <v>1.0276974E7</v>
-      </c>
-      <c r="C62" t="s" s="555">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="556">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s" s="557">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s" s="558">
-        <v>38</v>
-      </c>
-      <c r="G62" t="n" s="559">
-        <v>6.0</v>
-      </c>
-      <c r="H62" t="n" s="560">
-        <v>-0.030134652759936636</v>
+      <c r="G44" t="n" s="559">
+        <v>0.6083333333333343</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>4.875</v>
       </c>
     </row>
   </sheetData>
@@ -7607,7 +5847,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="562">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -7628,29 +5868,29 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="590">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="590">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="586">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n" s="591">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="592">
-        <v>0.5154212878202672</v>
+        <v>-0.5187328476482472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="586">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B7" t="n" s="591">
-        <v>0.5154212878202672</v>
+        <v>-0.5187328476482472</v>
       </c>
       <c r="C7" t="n" s="592">
         <v>1.0</v>
@@ -7674,29 +5914,29 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="610">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="610">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="606">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B12" t="e" s="611">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="612">
-        <v>3.007346701136455</v>
+        <v>-2.1876690476689937</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="606">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B13" t="n" s="611">
-        <v>3.007346701136455</v>
+        <v>-2.1876690476689937</v>
       </c>
       <c r="C13" t="e" s="612">
         <v>#DIV/0!</v>
@@ -7720,29 +5960,29 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="630">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="630">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="626">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n" s="631">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="632">
-        <v>0.005932490821154213</v>
+        <v>0.04756181339550691</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="626">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B19" t="n" s="631">
-        <v>0.005932490821154213</v>
+        <v>0.04756181339550691</v>
       </c>
       <c r="C19" t="n" s="632">
         <v>0.0</v>
@@ -7780,19 +6020,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="646">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B24" t="n" s="651">
-        <v>0.16838927193748368</v>
+        <v>-0.8145478703989678</v>
       </c>
       <c r="C24" t="n" s="652">
-        <v>0.5154212878202672</v>
+        <v>-0.5187328476482472</v>
       </c>
       <c r="D24" t="n" s="653">
-        <v>0.7487747703309616</v>
+        <v>-0.008811448445375047</v>
       </c>
       <c r="E24" t="n" s="654">
-        <v>0.005932490821154213</v>
+        <v>0.04756181339550691</v>
       </c>
     </row>
     <row r="25">
@@ -7807,1694 +6047,566 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="658">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="672">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s" s="672">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="673">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="n" s="674">
-        <v>0.8943229174768339</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="673">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B30" t="n" s="674">
-        <v>0.2967962112053458</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="673">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B31" t="n" s="674">
-        <v>0.04589615737790774</v>
+        <v>6.875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="673">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="B32" t="n" s="674">
-        <v>0.04589615737790774</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="673">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B33" t="n" s="674">
-        <v>-0.030134652759936636</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="673">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="B34" t="n" s="674">
-        <v>-0.4482465433985139</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="673">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B35" t="n" s="674">
-        <v>0.2967962112053458</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="673">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B36" t="n" s="674">
-        <v>0.4950446231798232</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="673">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B37" t="n" s="674">
-        <v>0.20842448400090235</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="673">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="B38" t="n" s="674">
-        <v>-0.581728733226766</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="673">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="B39" t="n" s="674">
-        <v>-0.24483839120963827</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="673">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B40" t="n" s="674">
-        <v>-0.8527022915567344</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="673">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B41" t="n" s="674">
-        <v>1.3443366272681938</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="673">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B42" t="n" s="674">
-        <v>2.7505191639644373</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="673">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B43" t="n" s="674">
-        <v>-0.030134652759936636</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B44" t="n" s="674">
-        <v>-0.9227598847989489</v>
+      <c r="A44" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B45" t="n" s="674">
-        <v>0.6097867393529149</v>
+      <c r="A45" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="673">
-        <v>1.0</v>
-      </c>
-      <c r="B46" t="n" s="674">
-        <v>0.20842448400090235</v>
+      <c r="A46" t="s" s="678">
+        <v>74</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B47" t="n" s="674">
-        <v>-1.3036913410142628</v>
+      <c r="A47" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s" s="692">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s" s="692">
+        <v>67</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B48" t="n" s="674">
-        <v>1.0855463518652735</v>
+      <c r="A48" t="n" s="693">
+        <v>10169.0</v>
+      </c>
+      <c r="B48" t="n" s="694">
+        <v>1.0377538E7</v>
+      </c>
+      <c r="C48" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s" s="696">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s" s="698">
+        <v>51</v>
+      </c>
+      <c r="G48" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H48" t="n" s="700">
+        <v>5.25</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B49" t="n" s="674">
-        <v>-0.3811405822530769</v>
+      <c r="A49" t="n" s="693">
+        <v>10174.0</v>
+      </c>
+      <c r="B49" t="n" s="694">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C49" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s" s="696">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s" s="698">
+        <v>51</v>
+      </c>
+      <c r="G49" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H49" t="n" s="700">
+        <v>4.375</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B50" t="n" s="674">
-        <v>-0.8527022915567344</v>
+      <c r="A50" t="n" s="693">
+        <v>10175.0</v>
+      </c>
+      <c r="B50" t="n" s="694">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C50" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s" s="696">
+        <v>38</v>
+      </c>
+      <c r="E50" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s" s="698">
+        <v>52</v>
+      </c>
+      <c r="G50" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="n" s="700">
+        <v>6.875</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B51" t="n" s="674">
-        <v>-0.31343622428089174</v>
+      <c r="A51" t="n" s="693">
+        <v>10184.0</v>
+      </c>
+      <c r="B51" t="n" s="694">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C51" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s" s="696">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F51" t="s" s="698">
+        <v>52</v>
+      </c>
+      <c r="G51" t="n" s="699">
+        <v>4.0</v>
+      </c>
+      <c r="H51" t="n" s="700">
+        <v>5.625</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B52" t="n" s="674">
-        <v>-0.3811405822530769</v>
+      <c r="A52" t="n" s="693">
+        <v>10189.0</v>
+      </c>
+      <c r="B52" t="n" s="694">
+        <v>9363926.0</v>
+      </c>
+      <c r="C52" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s" s="696">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s" s="698">
+        <v>52</v>
+      </c>
+      <c r="G52" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H52" t="n" s="700">
+        <v>5.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B53" t="n" s="674">
-        <v>1.3443366272681938</v>
+      <c r="A53" t="n" s="693">
+        <v>10193.0</v>
+      </c>
+      <c r="B53" t="n" s="694">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C53" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s" s="696">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s" s="698">
+        <v>51</v>
+      </c>
+      <c r="G53" t="n" s="699">
+        <v>5.0</v>
+      </c>
+      <c r="H53" t="n" s="700">
+        <v>4.625</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n" s="673">
-        <v>0.0</v>
-      </c>
-      <c r="B54" t="n" s="674">
-        <v>-0.7838387007338864</v>
+      <c r="A54" t="n" s="693">
+        <v>10199.0</v>
+      </c>
+      <c r="B54" t="n" s="694">
+        <v>1.0276737E7</v>
+      </c>
+      <c r="C54" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s" s="696">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s" s="698">
+        <v>51</v>
+      </c>
+      <c r="G54" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="n" s="700">
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n" s="673">
+      <c r="A55" t="n" s="693">
+        <v>10201.0</v>
+      </c>
+      <c r="B55" t="n" s="694">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C55" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D55" t="s" s="696">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s" s="698">
+        <v>51</v>
+      </c>
+      <c r="G55" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H55" t="n" s="700">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="693">
+        <v>10204.0</v>
+      </c>
+      <c r="B56" t="n" s="694">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C56" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s" s="696">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s" s="698">
+        <v>51</v>
+      </c>
+      <c r="G56" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="n" s="700">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="693">
+        <v>10206.0</v>
+      </c>
+      <c r="B57" t="n" s="694">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C57" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s" s="696">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s" s="698">
+        <v>51</v>
+      </c>
+      <c r="G57" t="n" s="699">
+        <v>3.0</v>
+      </c>
+      <c r="H57" t="n" s="700">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="693">
+        <v>10213.0</v>
+      </c>
+      <c r="B58" t="n" s="694">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C58" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s" s="696">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F58" t="s" s="698">
+        <v>52</v>
+      </c>
+      <c r="G58" t="n" s="699">
         <v>2.0</v>
       </c>
-      <c r="B55" t="n" s="674">
-        <v>-0.8527022915567344</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="678">
-        <v>67</v>
+      <c r="H58" t="n" s="700">
+        <v>4.375</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="692">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s" s="692">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s" s="692">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s" s="692">
-        <v>18</v>
-      </c>
-      <c r="E59" t="s" s="692">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s" s="692">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s" s="692">
-        <v>41</v>
-      </c>
-      <c r="H59" t="s" s="692">
-        <v>59</v>
+      <c r="A59" t="n" s="693">
+        <v>10215.0</v>
+      </c>
+      <c r="B59" t="n" s="694">
+        <v>9285227.0</v>
+      </c>
+      <c r="C59" t="s" s="695">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s" s="696">
+        <v>47</v>
+      </c>
+      <c r="E59" t="s" s="697">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s" s="698">
+        <v>52</v>
+      </c>
+      <c r="G59" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="n" s="700">
+        <v>6.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="693">
-        <v>10170.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B60" t="n" s="694">
-        <v>1.0260351E7</v>
+        <v>9842913.0</v>
       </c>
       <c r="C60" t="s" s="695">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s" s="696">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s" s="697">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s" s="698">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G60" t="n" s="699">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H60" t="n" s="700">
-        <v>0.8943229174768339</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="693">
-        <v>10171.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B61" t="n" s="694">
-        <v>698531.0</v>
+        <v>9795185.0</v>
       </c>
       <c r="C61" t="s" s="695">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s" s="696">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s" s="697">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s" s="698">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G61" t="n" s="699">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H61" t="n" s="700">
-        <v>0.2967962112053458</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="693">
-        <v>10176.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B62" t="n" s="694">
-        <v>1.0276949E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C62" t="s" s="695">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s" s="696">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s" s="697">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s" s="698">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G62" t="n" s="699">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H62" t="n" s="700">
-        <v>0.04589615737790774</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n" s="693">
-        <v>10178.0</v>
-      </c>
-      <c r="B63" t="n" s="694">
-        <v>8656201.0</v>
-      </c>
-      <c r="C63" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s" s="696">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F63" t="s" s="698">
-        <v>39</v>
-      </c>
-      <c r="G63" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H63" t="n" s="700">
-        <v>0.04589615737790774</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="693">
-        <v>10183.0</v>
-      </c>
-      <c r="B64" t="n" s="694">
-        <v>1.035203E7</v>
-      </c>
-      <c r="C64" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D64" t="s" s="696">
-        <v>24</v>
-      </c>
-      <c r="E64" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F64" t="s" s="698">
-        <v>39</v>
-      </c>
-      <c r="G64" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H64" t="n" s="700">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n" s="693">
-        <v>10185.0</v>
-      </c>
-      <c r="B65" t="n" s="694">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C65" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D65" t="s" s="696">
-        <v>46</v>
-      </c>
-      <c r="E65" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F65" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G65" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H65" t="n" s="700">
-        <v>-0.4482465433985139</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="693">
-        <v>10186.0</v>
-      </c>
-      <c r="B66" t="n" s="694">
-        <v>1.0310551E7</v>
-      </c>
-      <c r="C66" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D66" t="s" s="696">
-        <v>34</v>
-      </c>
-      <c r="E66" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F66" t="s" s="698">
-        <v>38</v>
-      </c>
-      <c r="G66" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H66" t="n" s="700">
-        <v>0.2967962112053458</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="693">
-        <v>10187.0</v>
-      </c>
-      <c r="B67" t="n" s="694">
-        <v>9790781.0</v>
-      </c>
-      <c r="C67" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D67" t="s" s="696">
-        <v>47</v>
-      </c>
-      <c r="E67" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F67" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G67" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H67" t="n" s="700">
-        <v>0.4950446231798232</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="693">
-        <v>10190.0</v>
-      </c>
-      <c r="B68" t="n" s="694">
-        <v>1.0276907E7</v>
-      </c>
-      <c r="C68" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D68" t="s" s="696">
-        <v>33</v>
-      </c>
-      <c r="E68" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F68" t="s" s="698">
-        <v>39</v>
-      </c>
-      <c r="G68" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H68" t="n" s="700">
-        <v>0.20842448400090235</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="693">
-        <v>10192.0</v>
-      </c>
-      <c r="B69" t="n" s="694">
-        <v>1.0276682E7</v>
-      </c>
-      <c r="C69" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D69" t="s" s="696">
-        <v>48</v>
-      </c>
-      <c r="E69" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F69" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G69" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H69" t="n" s="700">
-        <v>-0.581728733226766</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="693">
-        <v>10195.0</v>
-      </c>
-      <c r="B70" t="n" s="694">
-        <v>1.0351971E7</v>
-      </c>
-      <c r="C70" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D70" t="s" s="696">
-        <v>23</v>
-      </c>
-      <c r="E70" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F70" t="s" s="698">
-        <v>38</v>
-      </c>
-      <c r="G70" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H70" t="n" s="700">
-        <v>-0.24483839120963827</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="693">
-        <v>10196.0</v>
-      </c>
-      <c r="B71" t="n" s="694">
-        <v>1.0310655E7</v>
-      </c>
-      <c r="C71" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D71" t="s" s="696">
-        <v>22</v>
-      </c>
-      <c r="E71" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F71" t="s" s="698">
-        <v>38</v>
-      </c>
-      <c r="G71" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H71" t="n" s="700">
-        <v>-0.8527022915567344</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n" s="693">
-        <v>10197.0</v>
-      </c>
-      <c r="B72" t="n" s="694">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C72" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D72" t="s" s="696">
-        <v>28</v>
-      </c>
-      <c r="E72" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F72" t="s" s="698">
-        <v>38</v>
-      </c>
-      <c r="G72" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H72" t="n" s="700">
-        <v>1.3443366272681938</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="693">
-        <v>10198.0</v>
-      </c>
-      <c r="B73" t="n" s="694">
-        <v>1.0310888E7</v>
-      </c>
-      <c r="C73" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D73" t="s" s="696">
-        <v>25</v>
-      </c>
-      <c r="E73" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F73" t="s" s="698">
-        <v>39</v>
-      </c>
-      <c r="G73" t="n" s="699">
-        <v>4.0</v>
-      </c>
-      <c r="H73" t="n" s="700">
-        <v>2.7505191639644373</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="693">
-        <v>10200.0</v>
-      </c>
-      <c r="B74" t="n" s="694">
-        <v>9795272.0</v>
-      </c>
-      <c r="C74" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D74" t="s" s="696">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F74" t="s" s="698">
-        <v>39</v>
-      </c>
-      <c r="G74" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H74" t="n" s="700">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="693">
-        <v>10202.0</v>
-      </c>
-      <c r="B75" t="n" s="694">
-        <v>1.0277036E7</v>
-      </c>
-      <c r="C75" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D75" t="s" s="696">
-        <v>69</v>
-      </c>
-      <c r="E75" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F75" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G75" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H75" t="n" s="700">
-        <v>-0.9227598847989489</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n" s="693">
-        <v>10203.0</v>
-      </c>
-      <c r="B76" t="n" s="694">
-        <v>9921470.0</v>
-      </c>
-      <c r="C76" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D76" t="s" s="696">
-        <v>49</v>
-      </c>
-      <c r="E76" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F76" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G76" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H76" t="n" s="700">
-        <v>0.6097867393529149</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="693">
-        <v>10208.0</v>
-      </c>
-      <c r="B77" t="n" s="694">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C77" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D77" t="s" s="696">
-        <v>50</v>
-      </c>
-      <c r="E77" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F77" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G77" t="n" s="699">
-        <v>1.0</v>
-      </c>
-      <c r="H77" t="n" s="700">
-        <v>0.20842448400090235</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="693">
-        <v>10210.0</v>
-      </c>
-      <c r="B78" t="n" s="694">
-        <v>1.0277015E7</v>
-      </c>
-      <c r="C78" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D78" t="s" s="696">
-        <v>70</v>
-      </c>
-      <c r="E78" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F78" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G78" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H78" t="n" s="700">
-        <v>-1.3036913410142628</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="693">
-        <v>10220.0</v>
-      </c>
-      <c r="B79" t="n" s="694">
-        <v>9760151.0</v>
-      </c>
-      <c r="C79" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D79" t="s" s="696">
-        <v>71</v>
-      </c>
-      <c r="E79" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F79" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G79" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H79" t="n" s="700">
-        <v>1.0855463518652735</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="693">
-        <v>10221.0</v>
-      </c>
-      <c r="B80" t="n" s="694">
-        <v>9082496.0</v>
-      </c>
-      <c r="C80" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D80" t="s" s="696">
-        <v>30</v>
-      </c>
-      <c r="E80" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F80" t="s" s="698">
-        <v>38</v>
-      </c>
-      <c r="G80" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H80" t="n" s="700">
-        <v>-0.3811405822530769</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n" s="693">
-        <v>10224.0</v>
-      </c>
-      <c r="B81" t="n" s="694">
-        <v>9368772.0</v>
-      </c>
-      <c r="C81" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D81" t="s" s="696">
-        <v>51</v>
-      </c>
-      <c r="E81" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F81" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G81" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H81" t="n" s="700">
-        <v>-0.8527022915567344</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n" s="693">
-        <v>10227.0</v>
-      </c>
-      <c r="B82" t="n" s="694">
-        <v>9274382.0</v>
-      </c>
-      <c r="C82" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D82" t="s" s="696">
-        <v>52</v>
-      </c>
-      <c r="E82" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F82" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G82" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H82" t="n" s="700">
-        <v>-0.31343622428089174</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n" s="693">
-        <v>10228.0</v>
-      </c>
-      <c r="B83" t="n" s="694">
-        <v>1.0310492E7</v>
-      </c>
-      <c r="C83" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D83" t="s" s="696">
-        <v>53</v>
-      </c>
-      <c r="E83" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F83" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G83" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H83" t="n" s="700">
-        <v>-0.3811405822530769</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n" s="693">
-        <v>10231.0</v>
-      </c>
-      <c r="B84" t="n" s="694">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C84" t="s" s="695">
-        <v>21</v>
-      </c>
-      <c r="D84" t="s" s="696">
-        <v>29</v>
-      </c>
-      <c r="E84" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F84" t="s" s="698">
-        <v>38</v>
-      </c>
-      <c r="G84" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H84" t="n" s="700">
-        <v>1.3443366272681938</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="693">
-        <v>10233.0</v>
-      </c>
-      <c r="B85" t="n" s="694">
-        <v>9805320.0</v>
-      </c>
-      <c r="C85" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D85" t="s" s="696">
-        <v>54</v>
-      </c>
-      <c r="E85" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F85" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G85" t="n" s="699">
-        <v>0.0</v>
-      </c>
-      <c r="H85" t="n" s="700">
-        <v>-0.7838387007338864</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="693">
-        <v>10238.0</v>
-      </c>
-      <c r="B86" t="n" s="694">
-        <v>1.0276953E7</v>
-      </c>
-      <c r="C86" t="s" s="695">
-        <v>45</v>
-      </c>
-      <c r="D86" t="s" s="696">
-        <v>55</v>
-      </c>
-      <c r="E86" t="s" s="697">
-        <v>56</v>
-      </c>
-      <c r="F86" t="s" s="698">
-        <v>57</v>
-      </c>
-      <c r="G86" t="n" s="699">
-        <v>2.0</v>
-      </c>
-      <c r="H86" t="n" s="700">
-        <v>-0.8527022915567344</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
-    <col min="9" max="9" width="14.0" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="702">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="716">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5" t="s" s="730">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s" s="730">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="726">
-        <v>41</v>
-      </c>
-      <c r="B6" t="n" s="731">
-        <v>1.0</v>
-      </c>
-      <c r="C6" t="n" s="732">
-        <v>0.6815306300982242</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="726">
-        <v>59</v>
-      </c>
-      <c r="B7" t="n" s="731">
-        <v>0.6815306300982242</v>
-      </c>
-      <c r="C7" t="n" s="732">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="736">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11" t="s" s="750">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s" s="750">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="746">
-        <v>41</v>
-      </c>
-      <c r="B12" t="e" s="751">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" t="n" s="752">
-        <v>3.088840593070451</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="746">
-        <v>59</v>
-      </c>
-      <c r="B13" t="n" s="751">
-        <v>3.088840593070451</v>
-      </c>
-      <c r="C13" t="e" s="752">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="756">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17" t="s" s="770">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s" s="770">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="766">
-        <v>41</v>
-      </c>
-      <c r="B18" t="n" s="771">
-        <v>0.0</v>
-      </c>
-      <c r="C18" t="n" s="772">
-        <v>0.010307371462454418</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="766">
-        <v>59</v>
-      </c>
-      <c r="B19" t="n" s="771">
-        <v>0.010307371462454418</v>
-      </c>
-      <c r="C19" t="n" s="772">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="776">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23" t="s" s="790">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s" s="790">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s" s="790">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s" s="790">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="786">
-        <v>65</v>
-      </c>
-      <c r="B24" t="n" s="791">
-        <v>0.2090442288292857</v>
-      </c>
-      <c r="C24" t="n" s="792">
-        <v>0.6815306300982242</v>
-      </c>
-      <c r="D24" t="n" s="793">
-        <v>0.8960406840920035</v>
-      </c>
-      <c r="E24" t="n" s="794">
-        <v>0.010307371462454418</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="798">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="812">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s" s="812">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B29" t="n" s="814">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="813">
-        <v>0.0</v>
-      </c>
-      <c r="B30" t="n" s="814">
-        <v>0.04589615737790774</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="813">
-        <v>0.0</v>
-      </c>
-      <c r="B31" t="n" s="814">
-        <v>0.04589615737790774</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B32" t="n" s="814">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B33" t="n" s="814">
-        <v>0.2967962112053458</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="813">
-        <v>0.0</v>
-      </c>
-      <c r="B34" t="n" s="814">
-        <v>0.20842448400090235</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="813">
-        <v>0.0</v>
-      </c>
-      <c r="B35" t="n" s="814">
-        <v>-0.24483839120963827</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B36" t="n" s="814">
-        <v>-0.8527022915567344</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B37" t="n" s="814">
-        <v>1.3443366272681938</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="813">
-        <v>4.0</v>
-      </c>
-      <c r="B38" t="n" s="814">
-        <v>2.7505191639644373</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="813">
-        <v>1.0</v>
-      </c>
-      <c r="B39" t="n" s="814">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="813">
-        <v>0.0</v>
-      </c>
-      <c r="B40" t="n" s="814">
-        <v>-0.3811405822530769</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="813">
-        <v>0.0</v>
-      </c>
-      <c r="B41" t="n" s="814">
-        <v>1.3443366272681938</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="818">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="832">
-        <v>15</v>
-      </c>
-      <c r="B45" t="s" s="832">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s" s="832">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s" s="832">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s" s="832">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s" s="832">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s" s="832">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s" s="832">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="833">
-        <v>10170.0</v>
-      </c>
-      <c r="B46" t="n" s="834">
-        <v>1.0260351E7</v>
-      </c>
-      <c r="C46" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s" s="836">
-        <v>27</v>
-      </c>
-      <c r="E46" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F46" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G46" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H46" t="n" s="840">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="833">
-        <v>10176.0</v>
-      </c>
-      <c r="B47" t="n" s="834">
-        <v>1.0276949E7</v>
-      </c>
-      <c r="C47" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s" s="836">
-        <v>35</v>
-      </c>
-      <c r="E47" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F47" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G47" t="n" s="839">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="840">
-        <v>0.04589615737790774</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="833">
-        <v>10178.0</v>
-      </c>
-      <c r="B48" t="n" s="834">
-        <v>8656201.0</v>
-      </c>
-      <c r="C48" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="836">
-        <v>32</v>
-      </c>
-      <c r="E48" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F48" t="s" s="838">
-        <v>39</v>
-      </c>
-      <c r="G48" t="n" s="839">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="840">
-        <v>0.04589615737790774</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="833">
-        <v>10183.0</v>
-      </c>
-      <c r="B49" t="n" s="834">
-        <v>1.035203E7</v>
-      </c>
-      <c r="C49" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="836">
-        <v>24</v>
-      </c>
-      <c r="E49" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F49" t="s" s="838">
-        <v>39</v>
-      </c>
-      <c r="G49" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H49" t="n" s="840">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="833">
-        <v>10186.0</v>
-      </c>
-      <c r="B50" t="n" s="834">
-        <v>1.0310551E7</v>
-      </c>
-      <c r="C50" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="836">
-        <v>34</v>
-      </c>
-      <c r="E50" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F50" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G50" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H50" t="n" s="840">
-        <v>0.2967962112053458</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="833">
-        <v>10190.0</v>
-      </c>
-      <c r="B51" t="n" s="834">
-        <v>1.0276907E7</v>
-      </c>
-      <c r="C51" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="836">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F51" t="s" s="838">
-        <v>39</v>
-      </c>
-      <c r="G51" t="n" s="839">
-        <v>0.0</v>
-      </c>
-      <c r="H51" t="n" s="840">
-        <v>0.20842448400090235</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="833">
-        <v>10195.0</v>
-      </c>
-      <c r="B52" t="n" s="834">
-        <v>1.0351971E7</v>
-      </c>
-      <c r="C52" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="836">
-        <v>23</v>
-      </c>
-      <c r="E52" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F52" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G52" t="n" s="839">
-        <v>0.0</v>
-      </c>
-      <c r="H52" t="n" s="840">
-        <v>-0.24483839120963827</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="833">
-        <v>10196.0</v>
-      </c>
-      <c r="B53" t="n" s="834">
-        <v>1.0310655E7</v>
-      </c>
-      <c r="C53" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="836">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F53" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G53" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H53" t="n" s="840">
-        <v>-0.8527022915567344</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="833">
-        <v>10197.0</v>
-      </c>
-      <c r="B54" t="n" s="834">
-        <v>1.0276661E7</v>
-      </c>
-      <c r="C54" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="836">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F54" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G54" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H54" t="n" s="840">
-        <v>1.3443366272681938</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="833">
-        <v>10198.0</v>
-      </c>
-      <c r="B55" t="n" s="834">
-        <v>1.0310888E7</v>
-      </c>
-      <c r="C55" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="836">
-        <v>25</v>
-      </c>
-      <c r="E55" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F55" t="s" s="838">
-        <v>39</v>
-      </c>
-      <c r="G55" t="n" s="839">
-        <v>4.0</v>
-      </c>
-      <c r="H55" t="n" s="840">
-        <v>2.7505191639644373</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="833">
-        <v>10200.0</v>
-      </c>
-      <c r="B56" t="n" s="834">
-        <v>9795272.0</v>
-      </c>
-      <c r="C56" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="836">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F56" t="s" s="838">
-        <v>39</v>
-      </c>
-      <c r="G56" t="n" s="839">
-        <v>1.0</v>
-      </c>
-      <c r="H56" t="n" s="840">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="833">
-        <v>10221.0</v>
-      </c>
-      <c r="B57" t="n" s="834">
-        <v>9082496.0</v>
-      </c>
-      <c r="C57" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="836">
-        <v>30</v>
-      </c>
-      <c r="E57" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F57" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G57" t="n" s="839">
-        <v>0.0</v>
-      </c>
-      <c r="H57" t="n" s="840">
-        <v>-0.3811405822530769</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="833">
-        <v>10231.0</v>
-      </c>
-      <c r="B58" t="n" s="834">
-        <v>1.0276911E7</v>
-      </c>
-      <c r="C58" t="s" s="835">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="836">
-        <v>29</v>
-      </c>
-      <c r="E58" t="s" s="837">
-        <v>56</v>
-      </c>
-      <c r="F58" t="s" s="838">
-        <v>38</v>
-      </c>
-      <c r="G58" t="n" s="839">
-        <v>0.0</v>
-      </c>
-      <c r="H58" t="n" s="840">
-        <v>1.3443366272681938</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/exp2/case01/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/exp2/case01/report/correlation/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,17 +6,22 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_spearman_27" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_spearman_80" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_spearman_99" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_7" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_27" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_33" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_35" r:id="rId6" sheetId="4"/>
+    <sheet name="moderate_spearman_36" r:id="rId7" sheetId="5"/>
+    <sheet name="moderate_spearman_80" r:id="rId8" sheetId="6"/>
+    <sheet name="moderate_spearman_117" r:id="rId9" sheetId="7"/>
+    <sheet name="moderate_spearman_125" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="85">
   <si>
-    <t>Correlation information for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
+    <t>Correlation information for DiffTheta - Intrinsic Motivation in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -25,7 +30,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>NroNecessaryInteractions</t>
+    <t>DiffTheta</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -52,13 +57,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>NrNcI-IntrM</t>
+    <t>DffTh-IntrM</t>
   </si>
   <si>
-    <t>Data source for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master</t>
+    <t>Data source for DiffTheta - Intrinsic Motivation in non-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master</t>
+    <t>Data full source for DiffTheta - Intrinsic Motivation in non-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -79,6 +84,54 @@
     <t>PlayerRole</t>
   </si>
   <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 3</t>
+  </si>
+  <si>
+    <t>Grupo  Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 4</t>
+  </si>
+  <si>
+    <t>Grupo Team 12</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>NroNecessaryInteractions</t>
+  </si>
+  <si>
+    <t>NrNcI-IntrM</t>
+  </si>
+  <si>
+    <t>Data source for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroNecessaryInteractions - Intrinsic Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
     <t>ont-gamified</t>
   </si>
   <si>
@@ -88,13 +141,7 @@
     <t>Grupo Urano</t>
   </si>
   <si>
-    <t>Grupo Hélio</t>
-  </si>
-  <si>
     <t>Grupo Apolo</t>
-  </si>
-  <si>
-    <t>Grupo Hades</t>
   </si>
   <si>
     <t>Grupo Afrodite</t>
@@ -106,28 +153,13 @@
     <t>Grupo Caronte</t>
   </si>
   <si>
-    <t>Grupo Hermes</t>
-  </si>
-  <si>
     <t>Grupo Hera</t>
   </si>
   <si>
     <t>Grupo Morfeu</t>
   </si>
   <si>
-    <t>Grupo Zeus</t>
-  </si>
-  <si>
-    <t>Grupo Ares</t>
-  </si>
-  <si>
-    <t>Grupo Cronus</t>
-  </si>
-  <si>
     <t>Grupo Artemis</t>
-  </si>
-  <si>
-    <t>Master</t>
   </si>
   <si>
     <t>Yee Achiever</t>
@@ -136,10 +168,67 @@
     <t>Yee Socializer</t>
   </si>
   <si>
-    <t>Correlation information for DiffTheta - Perceived Choice in ont-gamified.Apprentice using the method: spearman</t>
+    <t>Correlation information for NroDesiredInteractions - Intrinsic Motivation in non-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>NroDesiredInteractions</t>
+  </si>
+  <si>
+    <t>NrDsI-IntrM</t>
+  </si>
+  <si>
+    <t>Data source for NroDesiredInteractions - Intrinsic Motivation in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for NroDesiredInteractions - Intrinsic Motivation in non-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Grupo Team 14</t>
+  </si>
+  <si>
+    <t>Grupo Team 16</t>
+  </si>
+  <si>
+    <t>Grupo Team 13</t>
+  </si>
+  <si>
+    <t>Apprentice</t>
+  </si>
+  <si>
+    <t>Correlation information for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Grupo Cronus</t>
+  </si>
+  <si>
+    <t>Grupo Hélio</t>
+  </si>
+  <si>
+    <t>Grupo Ares</t>
+  </si>
+  <si>
+    <t>Grupo Zeus</t>
+  </si>
+  <si>
+    <t>Grupo Hermes</t>
+  </si>
+  <si>
+    <t>Correlation information for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for NroDesiredInteractions - Intrinsic Motivation in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for DiffTheta - Perceived Choice in ont-gamified.Apprentice using the method: spearman</t>
   </si>
   <si>
     <t>Perceived Choice</t>
@@ -154,19 +243,37 @@
     <t>Data full source for DiffTheta - Perceived Choice in ont-gamified.Apprentice</t>
   </si>
   <si>
-    <t>Apprentice</t>
+    <t>Correlation information for DiffTheta - Pressure/Tension in ont-gamified.Master using the method: spearman</t>
   </si>
   <si>
-    <t>Correlation information for NroNecessaryInteractions - Perceived Choice in ont-gamified.Master using the method: spearman</t>
+    <t>Pressure/Tension</t>
   </si>
   <si>
-    <t>NrNcI-PrcvC</t>
+    <t>DffTh-Prs/T</t>
   </si>
   <si>
-    <t>Data source for NroNecessaryInteractions - Perceived Choice in ont-gamified.Master</t>
+    <t>Data source for DiffTheta - Pressure/Tension in ont-gamified.Master</t>
   </si>
   <si>
-    <t>Data full source for NroNecessaryInteractions - Perceived Choice in ont-gamified.Master</t>
+    <t>Data full source for DiffTheta - Pressure/Tension in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Grupo Hades</t>
+  </si>
+  <si>
+    <t>Correlation information for NroTotalInteractions - Pressure/Tension in ont-gamified.Apprentice using the method: spearman</t>
+  </si>
+  <si>
+    <t>NroTotalInteractions</t>
+  </si>
+  <si>
+    <t>NrTtI-Prs/T</t>
+  </si>
+  <si>
+    <t>Data source for NroTotalInteractions - Pressure/Tension in ont-gamified.Apprentice</t>
+  </si>
+  <si>
+    <t>Data full source for NroTotalInteractions - Pressure/Tension in ont-gamified.Apprentice</t>
   </si>
 </sst>
 </file>
@@ -174,13 +281,2378 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="223">
+  <fonts count="593">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1644,7 +4116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="1121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2138,6 +4610,826 @@
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="455" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="497" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="503" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="515" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="551" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="557" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="559" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="561" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="565" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="567" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="568" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="569" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="570" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="571" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="572" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="573" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="576" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="577" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="578" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="579" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="582" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="588" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="589" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="590" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="591" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="592" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2198,7 +5490,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.559507983560959</v>
+        <v>-0.6586944440522925</v>
       </c>
     </row>
     <row r="7">
@@ -2206,10 +5498,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.559507983560959</v>
+        <v>-0.6586944440522925</v>
       </c>
       <c r="C7" t="n" s="32">
-        <v>0.9999999999999998</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -2244,7 +5536,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-2.4339695571009647</v>
+        <v>-2.14439482995182</v>
       </c>
     </row>
     <row r="13">
@@ -2252,10 +5544,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-2.4339695571009647</v>
-      </c>
-      <c r="C13" t="n" s="52">
-        <v>1.710947035355221E8</v>
+        <v>-2.14439482995182</v>
+      </c>
+      <c r="C13" t="e" s="52">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +5582,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.03010580243002625</v>
+        <v>0.07568968784163843</v>
       </c>
     </row>
     <row r="19">
@@ -2298,7 +5590,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.03010580243002625</v>
+        <v>0.07568968784163843</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>0.0</v>
@@ -2339,16 +5631,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.8330158608617559</v>
+        <v>-0.9311574656162334</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.559507983560959</v>
+        <v>-0.6586944440522925</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>-0.06622672136420692</v>
+        <v>0.0858070317034849</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.03010580243002625</v>
+        <v>0.07568968784163843</v>
       </c>
     </row>
     <row r="25">
@@ -2376,553 +5668,315 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>5.0</v>
+        <v>0.1583290083772529</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>0.06257576207595299</v>
+        <v>-0.5558103051963914</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>5.0</v>
+        <v>-0.04251847919301664</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>-0.1476179298406524</v>
+        <v>0.03967711335877115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>3.0</v>
+        <v>0.23847550772379</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>1.1427348776544457</v>
+        <v>-0.22653598655699747</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>4.0</v>
+        <v>-0.1396731669319534</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>-0.010251073065152789</v>
+        <v>0.2308111401590657</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="113">
-        <v>5.0</v>
+        <v>-0.19731402536560821</v>
       </c>
       <c r="B33" t="n" s="114">
-        <v>-0.4615556974693298</v>
+        <v>0.31613975466741084</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="113">
-        <v>5.0</v>
+        <v>0.047992902175278504</v>
       </c>
       <c r="B34" t="n" s="114">
-        <v>-0.11415196535446955</v>
+        <v>-0.3492545325795932</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="113">
-        <v>2.0</v>
+        <v>-0.12662512634410175</v>
       </c>
       <c r="B35" t="n" s="114">
-        <v>0.10029283693157723</v>
+        <v>-0.5558103051963914</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="113">
-        <v>3.0</v>
+        <v>-0.26345899743098544</v>
       </c>
       <c r="B36" t="n" s="114">
-        <v>0.3065045163473969</v>
+        <v>0.11300962036442662</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B37" t="n" s="114">
-        <v>1.1427348776544457</v>
+      <c r="A37" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B38" t="n" s="114">
-        <v>-0.010251073065152789</v>
+      <c r="A38" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="114">
-        <v>0.025757254694158987</v>
+      <c r="A39" t="s" s="118">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B40" t="n" s="114">
-        <v>0.5039843426371508</v>
+      <c r="A40" t="s" s="132">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s" s="132">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="132">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="132">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="132">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s" s="132">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s" s="132">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B41" t="n" s="114">
-        <v>-0.4615556974693298</v>
+      <c r="A41" t="n" s="133">
+        <v>10179.0</v>
+      </c>
+      <c r="B41" t="n" s="134">
+        <v>1.0310759E7</v>
+      </c>
+      <c r="C41" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="136">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n" s="139">
+        <v>0.1583290083772529</v>
+      </c>
+      <c r="H41" t="n" s="140">
+        <v>-0.5558103051963914</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B42" t="n" s="114">
-        <v>0.5604913938471899</v>
+      <c r="A42" t="n" s="133">
+        <v>10181.0</v>
+      </c>
+      <c r="B42" t="n" s="134">
+        <v>1.0276866E7</v>
+      </c>
+      <c r="C42" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="139">
+        <v>-0.04251847919301664</v>
+      </c>
+      <c r="H42" t="n" s="140">
+        <v>0.03967711335877115</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B43" t="n" s="114">
-        <v>-0.08014022396140201</v>
+      <c r="A43" t="n" s="133">
+        <v>10188.0</v>
+      </c>
+      <c r="B43" t="n" s="134">
+        <v>1.0276995E7</v>
+      </c>
+      <c r="C43" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="139">
+        <v>0.23847550772379</v>
+      </c>
+      <c r="H43" t="n" s="140">
+        <v>-0.22653598655699747</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
+      <c r="A44" t="n" s="133">
+        <v>10191.0</v>
+      </c>
+      <c r="B44" t="n" s="134">
+        <v>1.0276981E7</v>
+      </c>
+      <c r="C44" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n" s="139">
+        <v>-0.1396731669319534</v>
+      </c>
+      <c r="H44" t="n" s="140">
+        <v>0.2308111401590657</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
+      <c r="A45" t="n" s="133">
+        <v>10212.0</v>
+      </c>
+      <c r="B45" t="n" s="134">
+        <v>9065750.0</v>
+      </c>
+      <c r="C45" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="136">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n" s="139">
+        <v>-0.19731402536560821</v>
+      </c>
+      <c r="H45" t="n" s="140">
+        <v>0.31613975466741084</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="118">
-        <v>14</v>
+      <c r="A46" t="n" s="133">
+        <v>10219.0</v>
+      </c>
+      <c r="B46" t="n" s="134">
+        <v>1.0276831E7</v>
+      </c>
+      <c r="C46" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="136">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n" s="139">
+        <v>0.047992902175278504</v>
+      </c>
+      <c r="H46" t="n" s="140">
+        <v>-0.3492545325795932</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="132">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="132">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="132">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="132">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="132">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="132">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s" s="132">
-        <v>4</v>
+      <c r="A47" t="n" s="133">
+        <v>10234.0</v>
+      </c>
+      <c r="B47" t="n" s="134">
+        <v>1.0310676E7</v>
+      </c>
+      <c r="C47" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G47" t="n" s="139">
+        <v>-0.12662512634410175</v>
+      </c>
+      <c r="H47" t="n" s="140">
+        <v>-0.5558103051963914</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="133">
-        <v>10169.0</v>
+        <v>10237.0</v>
       </c>
       <c r="B48" t="n" s="134">
-        <v>1.0377538E7</v>
+        <v>1.0377688E7</v>
       </c>
       <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
       <c r="D48" t="s" s="136">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s" s="137">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s" s="138">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="n" s="139">
-        <v>5.0</v>
+        <v>-0.26345899743098544</v>
       </c>
       <c r="H48" t="n" s="140">
-        <v>0.06257576207595299</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="133">
-        <v>10174.0</v>
-      </c>
-      <c r="B49" t="n" s="134">
-        <v>1.0276852E7</v>
-      </c>
-      <c r="C49" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G49" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H49" t="n" s="140">
-        <v>-0.1476179298406524</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="133">
-        <v>10175.0</v>
-      </c>
-      <c r="B50" t="n" s="134">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C50" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E50" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G50" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H50" t="n" s="140">
-        <v>1.1427348776544457</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="133">
-        <v>10184.0</v>
-      </c>
-      <c r="B51" t="n" s="134">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C51" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G51" t="n" s="139">
-        <v>4.0</v>
-      </c>
-      <c r="H51" t="n" s="140">
-        <v>-0.010251073065152789</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="133">
-        <v>10189.0</v>
-      </c>
-      <c r="B52" t="n" s="134">
-        <v>9363926.0</v>
-      </c>
-      <c r="C52" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="136">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G52" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H52" t="n" s="140">
-        <v>-0.4615556974693298</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="133">
-        <v>10193.0</v>
-      </c>
-      <c r="B53" t="n" s="134">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C53" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="136">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G53" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H53" t="n" s="140">
-        <v>-0.11415196535446955</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="133">
-        <v>10199.0</v>
-      </c>
-      <c r="B54" t="n" s="134">
-        <v>1.0276737E7</v>
-      </c>
-      <c r="C54" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="136">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G54" t="n" s="139">
-        <v>2.0</v>
-      </c>
-      <c r="H54" t="n" s="140">
-        <v>0.10029283693157723</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="133">
-        <v>10201.0</v>
-      </c>
-      <c r="B55" t="n" s="134">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C55" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="136">
-        <v>29</v>
-      </c>
-      <c r="E55" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G55" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H55" t="n" s="140">
-        <v>0.3065045163473969</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="133">
-        <v>10204.0</v>
-      </c>
-      <c r="B56" t="n" s="134">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C56" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="136">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G56" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="140">
-        <v>1.1427348776544457</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="133">
-        <v>10206.0</v>
-      </c>
-      <c r="B57" t="n" s="134">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C57" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="136">
-        <v>31</v>
-      </c>
-      <c r="E57" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G57" t="n" s="139">
-        <v>3.0</v>
-      </c>
-      <c r="H57" t="n" s="140">
-        <v>-0.010251073065152789</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="133">
-        <v>10213.0</v>
-      </c>
-      <c r="B58" t="n" s="134">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C58" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="136">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F58" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G58" t="n" s="139">
-        <v>2.0</v>
-      </c>
-      <c r="H58" t="n" s="140">
-        <v>0.025757254694158987</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="133">
-        <v>10215.0</v>
-      </c>
-      <c r="B59" t="n" s="134">
-        <v>9285227.0</v>
-      </c>
-      <c r="C59" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="136">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F59" t="s" s="138">
-        <v>39</v>
-      </c>
-      <c r="G59" t="n" s="139">
-        <v>2.0</v>
-      </c>
-      <c r="H59" t="n" s="140">
-        <v>0.5039843426371508</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="133">
-        <v>10218.0</v>
-      </c>
-      <c r="B60" t="n" s="134">
-        <v>9842913.0</v>
-      </c>
-      <c r="C60" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="136">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G60" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H60" t="n" s="140">
-        <v>-0.4615556974693298</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="133">
-        <v>10223.0</v>
-      </c>
-      <c r="B61" t="n" s="134">
-        <v>9795185.0</v>
-      </c>
-      <c r="C61" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="136">
-        <v>35</v>
-      </c>
-      <c r="E61" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G61" t="n" s="139">
-        <v>5.0</v>
-      </c>
-      <c r="H61" t="n" s="140">
-        <v>0.5604913938471899</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="133">
-        <v>10232.0</v>
-      </c>
-      <c r="B62" t="n" s="134">
-        <v>1.0276974E7</v>
-      </c>
-      <c r="C62" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="136">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s" s="137">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s" s="138">
-        <v>38</v>
-      </c>
-      <c r="G62" t="n" s="139">
-        <v>6.0</v>
-      </c>
-      <c r="H62" t="n" s="140">
-        <v>-0.08014022396140201</v>
+        <v>0.11300962036442662</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +6005,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -2972,29 +6026,29 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="170">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="166">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n" s="171">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>0.6722926454528143</v>
+        <v>-0.6396322703320904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>0.6722926454528143</v>
+        <v>-0.6396322703320904</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -3018,29 +6072,29 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="190">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="186">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B12" t="e" s="191">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>2.402747568157891</v>
+        <v>-2.2015736107887522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>2.402747568157891</v>
+        <v>-2.2015736107887522</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -3064,29 +6118,29 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="210">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="206">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n" s="211">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.047274938290474466</v>
+        <v>0.06358315353525335</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.047274938290474466</v>
+        <v>0.06358315353525335</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>0.0</v>
@@ -3124,19 +6178,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>0.014761885097395457</v>
+        <v>-0.9150475611918615</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>0.6722926454528143</v>
+        <v>-0.6396322703320904</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.9239052931815329</v>
+        <v>0.04257504927390233</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.047274938290474466</v>
+        <v>0.06358315353525335</v>
       </c>
     </row>
     <row r="25">
@@ -3151,87 +6205,87 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="252">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>-0.05529337773285724</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>0.8943229174768339</v>
+        <v>0.07589539312884466</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>-0.016712276344255608</v>
+        <v>5.0</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>0.04589615737790774</v>
+        <v>-0.13071739958502795</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>-0.0046094263256747925</v>
+        <v>4.0</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>0.04589615737790774</v>
+        <v>0.004267037117644073</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>-0.012570674202673153</v>
+        <v>5.0</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>-0.030134652759936636</v>
+        <v>-0.09784622715282519</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="253">
-        <v>0.0463865963424066</v>
+        <v>2.0</v>
       </c>
       <c r="B33" t="n" s="254">
-        <v>0.20842448400090235</v>
+        <v>0.11300962036442662</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="253">
-        <v>-0.054162887292449696</v>
+        <v>3.0</v>
       </c>
       <c r="B34" t="n" s="254">
-        <v>-0.24483839120963827</v>
+        <v>0.31613975466741084</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="253">
-        <v>0.04552897448731888</v>
+        <v>3.0</v>
       </c>
       <c r="B35" t="n" s="254">
-        <v>1.3443366272681938</v>
+        <v>0.004267037117644073</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="253">
-        <v>-0.19661825550064593</v>
+        <v>2.0</v>
       </c>
       <c r="B36" t="n" s="254">
-        <v>-0.3811405822530769</v>
+        <v>0.03967711335877115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="253">
-        <v>0.06516017468002039</v>
+        <v>6.0</v>
       </c>
       <c r="B37" t="n" s="254">
-        <v>1.3443366272681938</v>
+        <v>-0.06442958449825882</v>
       </c>
     </row>
     <row r="38">
@@ -3246,7 +6300,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="258">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
@@ -3269,244 +6323,244 @@
         <v>20</v>
       </c>
       <c r="G41" t="s" s="272">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H41" t="s" s="272">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="273">
-        <v>10170.0</v>
+        <v>10169.0</v>
       </c>
       <c r="B42" t="n" s="274">
-        <v>1.0260351E7</v>
+        <v>1.0377538E7</v>
       </c>
       <c r="C42" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s" s="276">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s" s="278">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G42" t="n" s="279">
-        <v>-0.05529337773285724</v>
+        <v>5.0</v>
       </c>
       <c r="H42" t="n" s="280">
-        <v>0.8943229174768339</v>
+        <v>0.07589539312884466</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="273">
-        <v>10176.0</v>
+        <v>10174.0</v>
       </c>
       <c r="B43" t="n" s="274">
-        <v>1.0276949E7</v>
+        <v>1.0276852E7</v>
       </c>
       <c r="C43" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s" s="276">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s" s="278">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G43" t="n" s="279">
-        <v>-0.016712276344255608</v>
+        <v>5.0</v>
       </c>
       <c r="H43" t="n" s="280">
-        <v>0.04589615737790774</v>
+        <v>-0.13071739958502795</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="273">
-        <v>10178.0</v>
+        <v>10184.0</v>
       </c>
       <c r="B44" t="n" s="274">
-        <v>8656201.0</v>
+        <v>1.0276675E7</v>
       </c>
       <c r="C44" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s" s="276">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s" s="278">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G44" t="n" s="279">
-        <v>-0.0046094263256747925</v>
+        <v>4.0</v>
       </c>
       <c r="H44" t="n" s="280">
-        <v>0.04589615737790774</v>
+        <v>0.004267037117644073</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="273">
-        <v>10183.0</v>
+        <v>10193.0</v>
       </c>
       <c r="B45" t="n" s="274">
-        <v>1.035203E7</v>
+        <v>1.0276762E7</v>
       </c>
       <c r="C45" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s" s="276">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s" s="278">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G45" t="n" s="279">
-        <v>-0.012570674202673153</v>
+        <v>5.0</v>
       </c>
       <c r="H45" t="n" s="280">
-        <v>-0.030134652759936636</v>
+        <v>-0.09784622715282519</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="273">
-        <v>10190.0</v>
+        <v>10199.0</v>
       </c>
       <c r="B46" t="n" s="274">
-        <v>1.0276907E7</v>
+        <v>1.0276737E7</v>
       </c>
       <c r="C46" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s" s="276">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s" s="278">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G46" t="n" s="279">
-        <v>0.0463865963424066</v>
+        <v>2.0</v>
       </c>
       <c r="H46" t="n" s="280">
-        <v>0.20842448400090235</v>
+        <v>0.11300962036442662</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="273">
-        <v>10195.0</v>
+        <v>10201.0</v>
       </c>
       <c r="B47" t="n" s="274">
-        <v>1.0351971E7</v>
+        <v>1.0276928E7</v>
       </c>
       <c r="C47" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s" s="276">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s" s="278">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G47" t="n" s="279">
-        <v>-0.054162887292449696</v>
+        <v>3.0</v>
       </c>
       <c r="H47" t="n" s="280">
-        <v>-0.24483839120963827</v>
+        <v>0.31613975466741084</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="273">
-        <v>10197.0</v>
+        <v>10206.0</v>
       </c>
       <c r="B48" t="n" s="274">
-        <v>1.0276661E7</v>
+        <v>1.0310721E7</v>
       </c>
       <c r="C48" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s" s="276">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s" s="278">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G48" t="n" s="279">
-        <v>0.04552897448731888</v>
+        <v>3.0</v>
       </c>
       <c r="H48" t="n" s="280">
-        <v>1.3443366272681938</v>
+        <v>0.004267037117644073</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="273">
-        <v>10221.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B49" t="n" s="274">
-        <v>9082496.0</v>
+        <v>1.027704E7</v>
       </c>
       <c r="C49" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s" s="276">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s" s="277">
         <v>30</v>
       </c>
-      <c r="E49" t="s" s="277">
-        <v>46</v>
-      </c>
       <c r="F49" t="s" s="278">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G49" t="n" s="279">
-        <v>-0.19661825550064593</v>
+        <v>2.0</v>
       </c>
       <c r="H49" t="n" s="280">
-        <v>-0.3811405822530769</v>
+        <v>0.03967711335877115</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="273">
-        <v>10231.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B50" t="n" s="274">
-        <v>1.0276911E7</v>
+        <v>1.0276974E7</v>
       </c>
       <c r="C50" t="s" s="275">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s" s="276">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s" s="277">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s" s="278">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G50" t="n" s="279">
-        <v>0.06516017468002039</v>
+        <v>6.0</v>
       </c>
       <c r="H50" t="n" s="280">
-        <v>1.3443366272681938</v>
+        <v>-0.06442958449825882</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +6589,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -3556,29 +6610,29 @@
     <row r="5">
       <c r="A5"/>
       <c r="B5" t="s" s="310">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="306">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B6" t="n" s="311">
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>-0.5083745198465075</v>
+        <v>-0.6546536707079772</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>-0.5083745198465075</v>
+        <v>-0.6546536707079772</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -3602,29 +6656,29 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s" s="330">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="326">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B12" t="e" s="331">
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>-2.1285490666233198</v>
+        <v>-1.7320508075688776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>-2.1285490666233198</v>
+        <v>-1.7320508075688776</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -3648,29 +6702,29 @@
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s" s="350">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="346">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B18" t="n" s="351">
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.05298934508655684</v>
+        <v>0.15830242337545775</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.05298934508655684</v>
+        <v>0.15830242337545775</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>0.0</v>
@@ -3708,19 +6762,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.809758849020103</v>
+        <v>-0.9575021360797155</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>-0.5083745198465075</v>
+        <v>-0.6546536707079772</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.005257485770756133</v>
+        <v>0.334765917896463</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.05298934508655684</v>
+        <v>0.15830242337545775</v>
       </c>
     </row>
     <row r="25">
@@ -3735,566 +6789,3044 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="392">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>-0.030134652759936636</v>
+        <v>-0.3492545325795932</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>-0.4482465433985139</v>
+        <v>-0.13071739958502795</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>1.7561459858348463</v>
+        <v>-0.7596602928070404</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>0.1251438438279301</v>
+        <v>-0.3190102685629231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n" s="393">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="B33" t="n" s="394">
-        <v>-0.1750174456725396</v>
+        <v>-0.526669411846894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="393">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B34" t="n" s="394">
-        <v>-0.31343622428089174</v>
+        <v>-0.7890708841846917</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="393">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="398">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="412">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="412">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s" s="412">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s" s="412">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="412">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s" s="412">
+        <v>50</v>
+      </c>
+      <c r="H38" t="s" s="412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="413">
+        <v>10185.0</v>
+      </c>
+      <c r="B39" t="n" s="414">
+        <v>1.027696E7</v>
+      </c>
+      <c r="C39" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s" s="416">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s" s="417">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G39" t="n" s="419">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="420">
+        <v>-0.3492545325795932</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="413">
+        <v>10224.0</v>
+      </c>
+      <c r="B40" t="n" s="414">
+        <v>9368772.0</v>
+      </c>
+      <c r="C40" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="416">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s" s="417">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G40" t="n" s="419">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n" s="420">
+        <v>-0.13071739958502795</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="413">
+        <v>10227.0</v>
+      </c>
+      <c r="B41" t="n" s="414">
+        <v>9274382.0</v>
+      </c>
+      <c r="C41" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="416">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s" s="417">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n" s="419">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n" s="420">
+        <v>-0.7596602928070404</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="413">
+        <v>10228.0</v>
+      </c>
+      <c r="B42" t="n" s="414">
+        <v>1.0310492E7</v>
+      </c>
+      <c r="C42" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="416">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s" s="417">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="419">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="420">
+        <v>-0.3190102685629231</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="413">
+        <v>10233.0</v>
+      </c>
+      <c r="B43" t="n" s="414">
+        <v>9805320.0</v>
+      </c>
+      <c r="C43" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="416">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s" s="417">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="419">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="420">
+        <v>-0.526669411846894</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="413">
+        <v>10238.0</v>
+      </c>
+      <c r="B44" t="n" s="414">
+        <v>1.0276953E7</v>
+      </c>
+      <c r="C44" t="s" s="415">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="416">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s" s="417">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s" s="418">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n" s="419">
         <v>2.0</v>
       </c>
-      <c r="B35" t="n" s="394">
-        <v>2.7505191639644373</v>
+      <c r="H44" t="n" s="420">
+        <v>-0.7890708841846917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="422">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="450">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="446">
+        <v>50</v>
+      </c>
+      <c r="B6" t="n" s="451">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="452">
+        <v>-0.6197797868009123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="446">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="451">
+        <v>-0.6197797868009123</v>
+      </c>
+      <c r="C7" t="n" s="452">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="470">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s" s="470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="466">
+        <v>50</v>
+      </c>
+      <c r="B12" t="e" s="471">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="472">
+        <v>-1.9344942598098125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="466">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n" s="471">
+        <v>-1.9344942598098125</v>
+      </c>
+      <c r="C13" t="e" s="472">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="476">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="490">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s" s="490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="486">
+        <v>50</v>
+      </c>
+      <c r="B18" t="n" s="491">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="492">
+        <v>0.1012115620857943</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="486">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n" s="491">
+        <v>0.1012115620857943</v>
+      </c>
+      <c r="C19" t="n" s="492">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="510">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="510">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="510">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="510">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="506">
+        <v>51</v>
+      </c>
+      <c r="B24" t="n" s="511">
+        <v>-0.9218444792492925</v>
+      </c>
+      <c r="C24" t="n" s="512">
+        <v>-0.6197797868009123</v>
+      </c>
+      <c r="D24" t="n" s="513">
+        <v>0.15071804974700176</v>
+      </c>
+      <c r="E24" t="n" s="514">
+        <v>0.1012115620857943</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="518">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="532">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s" s="532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="B29" t="n" s="534">
+        <v>-0.16309304520955564</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="B30" t="n" s="534">
+        <v>0.004267037117644073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B31" t="n" s="534">
+        <v>-0.22653598655699747</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B32" t="n" s="534">
+        <v>-0.030412288510453012</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="B33" t="n" s="534">
+        <v>0.11300962036442662</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="B34" t="n" s="534">
+        <v>0.07589539312884466</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="533">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n" s="534">
+        <v>-0.37925986924272737</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="393">
+      <c r="A36" t="n" s="533">
+        <v>0.0</v>
+      </c>
+      <c r="B36" t="n" s="534">
+        <v>-0.13071739958502795</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="538">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="552">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s" s="552">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="552">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s" s="552">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="552">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="552">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s" s="552">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s" s="552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="553">
+        <v>10176.0</v>
+      </c>
+      <c r="B41" t="n" s="554">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C41" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s" s="556">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s" s="558">
+        <v>47</v>
+      </c>
+      <c r="G41" t="n" s="559">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n" s="560">
+        <v>-0.16309304520955564</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="553">
+        <v>10178.0</v>
+      </c>
+      <c r="B42" t="n" s="554">
+        <v>8656201.0</v>
+      </c>
+      <c r="C42" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s" s="556">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s" s="558">
+        <v>48</v>
+      </c>
+      <c r="G42" t="n" s="559">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="560">
+        <v>0.004267037117644073</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="553">
+        <v>10183.0</v>
+      </c>
+      <c r="B43" t="n" s="554">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C43" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s" s="556">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s" s="558">
+        <v>48</v>
+      </c>
+      <c r="G43" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H43" t="n" s="560">
+        <v>-0.22653598655699747</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="553">
+        <v>10186.0</v>
+      </c>
+      <c r="B44" t="n" s="554">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C44" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s" s="556">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s" s="558">
+        <v>47</v>
+      </c>
+      <c r="G44" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H44" t="n" s="560">
+        <v>-0.030412288510453012</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="553">
+        <v>10190.0</v>
+      </c>
+      <c r="B45" t="n" s="554">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C45" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s" s="556">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F45" t="s" s="558">
+        <v>48</v>
+      </c>
+      <c r="G45" t="n" s="559">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="560">
+        <v>0.11300962036442662</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="553">
+        <v>10195.0</v>
+      </c>
+      <c r="B46" t="n" s="554">
+        <v>1.0351971E7</v>
+      </c>
+      <c r="C46" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s" s="556">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s" s="558">
+        <v>47</v>
+      </c>
+      <c r="G46" t="n" s="559">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="560">
+        <v>0.07589539312884466</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="553">
+        <v>10196.0</v>
+      </c>
+      <c r="B47" t="n" s="554">
+        <v>1.0310655E7</v>
+      </c>
+      <c r="C47" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s" s="556">
+        <v>38</v>
+      </c>
+      <c r="E47" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F47" t="s" s="558">
+        <v>47</v>
+      </c>
+      <c r="G47" t="n" s="559">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="n" s="560">
+        <v>-0.37925986924272737</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="553">
+        <v>10221.0</v>
+      </c>
+      <c r="B48" t="n" s="554">
+        <v>9082496.0</v>
+      </c>
+      <c r="C48" t="s" s="555">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s" s="556">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s" s="557">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s" s="558">
+        <v>47</v>
+      </c>
+      <c r="G48" t="n" s="559">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="560">
+        <v>-0.13071739958502795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="562">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="590">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="586">
+        <v>50</v>
+      </c>
+      <c r="B6" t="n" s="591">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="592">
+        <v>-0.5043471961494309</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="586">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="591">
+        <v>-0.5043471961494309</v>
+      </c>
+      <c r="C7" t="n" s="592">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="610">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s" s="610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="606">
+        <v>50</v>
+      </c>
+      <c r="B12" t="e" s="611">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="612">
+        <v>-1.5453106819927287</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="606">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n" s="611">
+        <v>-1.5453106819927287</v>
+      </c>
+      <c r="C13" t="e" s="612">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="630">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s" s="630">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="626">
+        <v>50</v>
+      </c>
+      <c r="B18" t="n" s="631">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="632">
+        <v>0.16618779475898737</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="626">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n" s="631">
+        <v>0.16618779475898737</v>
+      </c>
+      <c r="C19" t="n" s="632">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="636">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="650">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="650">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="650">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="646">
+        <v>51</v>
+      </c>
+      <c r="B24" t="n" s="651">
+        <v>-0.8752917514136848</v>
+      </c>
+      <c r="C24" t="n" s="652">
+        <v>-0.5043471961494309</v>
+      </c>
+      <c r="D24" t="n" s="653">
+        <v>0.24024360932522196</v>
+      </c>
+      <c r="E24" t="n" s="654">
+        <v>0.16618779475898737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="658">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="672">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s" s="672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="673">
+        <v>2.0</v>
+      </c>
+      <c r="B29" t="n" s="674">
+        <v>0.07589539312884466</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="673">
+        <v>4.0</v>
+      </c>
+      <c r="B30" t="n" s="674">
+        <v>-0.13071739958502795</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="673">
+        <v>13.0</v>
+      </c>
+      <c r="B31" t="n" s="674">
+        <v>0.004267037117644073</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="673">
+        <v>2.0</v>
+      </c>
+      <c r="B32" t="n" s="674">
+        <v>-0.09784622715282519</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B33" t="n" s="674">
+        <v>0.11300962036442662</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="673">
+        <v>0.0</v>
+      </c>
+      <c r="B34" t="n" s="674">
+        <v>0.31613975466741084</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B35" t="n" s="674">
+        <v>0.004267037117644073</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="673">
         <v>3.0</v>
       </c>
-      <c r="B36" t="n" s="394">
-        <v>0.2967962112053458</v>
+      <c r="B36" t="n" s="674">
+        <v>0.03967711335877115</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="393">
+      <c r="A37" t="n" s="673">
+        <v>1.0</v>
+      </c>
+      <c r="B37" t="n" s="674">
+        <v>-0.06442958449825882</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="678">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="692">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="692">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="692">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="692">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="692">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="692">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="692">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s" s="692">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="693">
+        <v>10169.0</v>
+      </c>
+      <c r="B42" t="n" s="694">
+        <v>1.0377538E7</v>
+      </c>
+      <c r="C42" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s" s="696">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s" s="698">
+        <v>47</v>
+      </c>
+      <c r="G42" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H42" t="n" s="700">
+        <v>0.07589539312884466</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="693">
+        <v>10174.0</v>
+      </c>
+      <c r="B43" t="n" s="694">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C43" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s" s="696">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s" s="698">
+        <v>47</v>
+      </c>
+      <c r="G43" t="n" s="699">
+        <v>4.0</v>
+      </c>
+      <c r="H43" t="n" s="700">
+        <v>-0.13071739958502795</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="693">
+        <v>10184.0</v>
+      </c>
+      <c r="B44" t="n" s="694">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C44" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s" s="696">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s" s="698">
+        <v>48</v>
+      </c>
+      <c r="G44" t="n" s="699">
+        <v>13.0</v>
+      </c>
+      <c r="H44" t="n" s="700">
+        <v>0.004267037117644073</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="693">
+        <v>10193.0</v>
+      </c>
+      <c r="B45" t="n" s="694">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C45" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s" s="696">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="698">
+        <v>47</v>
+      </c>
+      <c r="G45" t="n" s="699">
+        <v>2.0</v>
+      </c>
+      <c r="H45" t="n" s="700">
+        <v>-0.09784622715282519</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="693">
+        <v>10199.0</v>
+      </c>
+      <c r="B46" t="n" s="694">
+        <v>1.0276737E7</v>
+      </c>
+      <c r="C46" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s" s="696">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="698">
+        <v>47</v>
+      </c>
+      <c r="G46" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H46" t="n" s="700">
+        <v>0.11300962036442662</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="693">
+        <v>10201.0</v>
+      </c>
+      <c r="B47" t="n" s="694">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C47" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s" s="696">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s" s="698">
+        <v>47</v>
+      </c>
+      <c r="G47" t="n" s="699">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="700">
+        <v>0.31613975466741084</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="693">
+        <v>10206.0</v>
+      </c>
+      <c r="B48" t="n" s="694">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C48" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s" s="696">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s" s="698">
+        <v>47</v>
+      </c>
+      <c r="G48" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n" s="700">
+        <v>0.004267037117644073</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="693">
+        <v>10213.0</v>
+      </c>
+      <c r="B49" t="n" s="694">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C49" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s" s="696">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s" s="698">
+        <v>48</v>
+      </c>
+      <c r="G49" t="n" s="699">
         <v>3.0</v>
       </c>
-      <c r="B37" t="n" s="394">
-        <v>0.8943229174768339</v>
+      <c r="H49" t="n" s="700">
+        <v>0.03967711335877115</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="693">
+        <v>10232.0</v>
+      </c>
+      <c r="B50" t="n" s="694">
+        <v>1.0276974E7</v>
+      </c>
+      <c r="C50" t="s" s="695">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s" s="696">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s" s="697">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s" s="698">
+        <v>47</v>
+      </c>
+      <c r="G50" t="n" s="699">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n" s="700">
+        <v>-0.06442958449825882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="702">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="730">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="730">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="726">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="731">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="732">
+        <v>0.6722926454528143</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="726">
+        <v>70</v>
+      </c>
+      <c r="B7" t="n" s="731">
+        <v>0.6722926454528143</v>
+      </c>
+      <c r="C7" t="n" s="732">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="750">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="750">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="746">
+        <v>3</v>
+      </c>
+      <c r="B12" t="e" s="751">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="752">
+        <v>2.402747568157891</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="746">
+        <v>70</v>
+      </c>
+      <c r="B13" t="n" s="751">
+        <v>2.402747568157891</v>
+      </c>
+      <c r="C13" t="e" s="752">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="770">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="770">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="766">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="771">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="772">
+        <v>0.047274938290474466</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="766">
+        <v>70</v>
+      </c>
+      <c r="B19" t="n" s="771">
+        <v>0.047274938290474466</v>
+      </c>
+      <c r="C19" t="n" s="772">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="776">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="790">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="790">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="790">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="790">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="786">
+        <v>71</v>
+      </c>
+      <c r="B24" t="n" s="791">
+        <v>0.014761885097395457</v>
+      </c>
+      <c r="C24" t="n" s="792">
+        <v>0.6722926454528143</v>
+      </c>
+      <c r="D24" t="n" s="793">
+        <v>0.9239052931815329</v>
+      </c>
+      <c r="E24" t="n" s="794">
+        <v>0.047274938290474466</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="798">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="812">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="812">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="813">
+        <v>-0.05529337773285724</v>
+      </c>
+      <c r="B29" t="n" s="814">
+        <v>0.9533196434620419</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="813">
+        <v>-0.016712276344255608</v>
+      </c>
+      <c r="B30" t="n" s="814">
+        <v>0.1041631086664388</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="813">
+        <v>-0.0046094263256747925</v>
+      </c>
+      <c r="B31" t="n" s="814">
+        <v>0.1041631086664388</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="813">
+        <v>-0.012570674202673153</v>
+      </c>
+      <c r="B32" t="n" s="814">
+        <v>0.029085845599364474</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="813">
+        <v>0.0463865963424066</v>
+      </c>
+      <c r="B33" t="n" s="814">
+        <v>0.2653117734554871</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="813">
+        <v>-0.054162887292449696</v>
+      </c>
+      <c r="B34" t="n" s="814">
+        <v>-0.1817151787038067</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="813">
+        <v>0.04552897448731888</v>
+      </c>
+      <c r="B35" t="n" s="814">
+        <v>1.4105409999693268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="813">
+        <v>-0.19661825550064593</v>
+      </c>
+      <c r="B36" t="n" s="814">
+        <v>-0.31453153990893884</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="813">
+        <v>0.06516017468002039</v>
+      </c>
+      <c r="B37" t="n" s="814">
+        <v>1.4105409999693268</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="393">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="818">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="832">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s" s="832">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="832">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="832">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="832">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s" s="832">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s" s="832">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s" s="832">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="833">
+        <v>10170.0</v>
+      </c>
+      <c r="B42" t="n" s="834">
+        <v>1.0260351E7</v>
+      </c>
+      <c r="C42" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s" s="836">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s" s="838">
+        <v>47</v>
+      </c>
+      <c r="G42" t="n" s="839">
+        <v>-0.05529337773285724</v>
+      </c>
+      <c r="H42" t="n" s="840">
+        <v>0.9533196434620419</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="833">
+        <v>10176.0</v>
+      </c>
+      <c r="B43" t="n" s="834">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C43" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s" s="836">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s" s="838">
+        <v>47</v>
+      </c>
+      <c r="G43" t="n" s="839">
+        <v>-0.016712276344255608</v>
+      </c>
+      <c r="H43" t="n" s="840">
+        <v>0.1041631086664388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="833">
+        <v>10178.0</v>
+      </c>
+      <c r="B44" t="n" s="834">
+        <v>8656201.0</v>
+      </c>
+      <c r="C44" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s" s="836">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s" s="838">
+        <v>48</v>
+      </c>
+      <c r="G44" t="n" s="839">
+        <v>-0.0046094263256747925</v>
+      </c>
+      <c r="H44" t="n" s="840">
+        <v>0.1041631086664388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="833">
+        <v>10183.0</v>
+      </c>
+      <c r="B45" t="n" s="834">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C45" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s" s="836">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F45" t="s" s="838">
+        <v>48</v>
+      </c>
+      <c r="G45" t="n" s="839">
+        <v>-0.012570674202673153</v>
+      </c>
+      <c r="H45" t="n" s="840">
+        <v>0.029085845599364474</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="833">
+        <v>10190.0</v>
+      </c>
+      <c r="B46" t="n" s="834">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C46" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s" s="836">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F46" t="s" s="838">
+        <v>48</v>
+      </c>
+      <c r="G46" t="n" s="839">
+        <v>0.0463865963424066</v>
+      </c>
+      <c r="H46" t="n" s="840">
+        <v>0.2653117734554871</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="833">
+        <v>10195.0</v>
+      </c>
+      <c r="B47" t="n" s="834">
+        <v>1.0351971E7</v>
+      </c>
+      <c r="C47" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s" s="836">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F47" t="s" s="838">
+        <v>47</v>
+      </c>
+      <c r="G47" t="n" s="839">
+        <v>-0.054162887292449696</v>
+      </c>
+      <c r="H47" t="n" s="840">
+        <v>-0.1817151787038067</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="833">
+        <v>10197.0</v>
+      </c>
+      <c r="B48" t="n" s="834">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C48" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s" s="836">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F48" t="s" s="838">
+        <v>47</v>
+      </c>
+      <c r="G48" t="n" s="839">
+        <v>0.04552897448731888</v>
+      </c>
+      <c r="H48" t="n" s="840">
+        <v>1.4105409999693268</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="833">
+        <v>10221.0</v>
+      </c>
+      <c r="B49" t="n" s="834">
+        <v>9082496.0</v>
+      </c>
+      <c r="C49" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s" s="836">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F49" t="s" s="838">
+        <v>47</v>
+      </c>
+      <c r="G49" t="n" s="839">
+        <v>-0.19661825550064593</v>
+      </c>
+      <c r="H49" t="n" s="840">
+        <v>-0.31453153990893884</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="833">
+        <v>10231.0</v>
+      </c>
+      <c r="B50" t="n" s="834">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C50" t="s" s="835">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s" s="836">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s" s="837">
+        <v>57</v>
+      </c>
+      <c r="F50" t="s" s="838">
+        <v>47</v>
+      </c>
+      <c r="G50" t="n" s="839">
+        <v>0.06516017468002039</v>
+      </c>
+      <c r="H50" t="n" s="840">
+        <v>1.4105409999693268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="842">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="870">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s" s="870">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="866">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="871">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="C6" t="n" s="872">
+        <v>0.5124335523821733</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="866">
+        <v>75</v>
+      </c>
+      <c r="B7" t="n" s="871">
+        <v>0.5124335523821733</v>
+      </c>
+      <c r="C7" t="n" s="872">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="876">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="890">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s" s="890">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="886">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n" s="891">
+        <v>1.3421772799999999E8</v>
+      </c>
+      <c r="C12" t="n" s="892">
+        <v>1.6878253062587465</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="886">
+        <v>75</v>
+      </c>
+      <c r="B13" t="n" s="891">
+        <v>1.6878253062587465</v>
+      </c>
+      <c r="C13" t="e" s="892">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="896">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="910">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="910">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="906">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n" s="911">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="912">
+        <v>0.12992345718318266</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="906">
+        <v>75</v>
+      </c>
+      <c r="B19" t="n" s="911">
+        <v>0.12992345718318266</v>
+      </c>
+      <c r="C19" t="n" s="912">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="916">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="930">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="930">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="930">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="930">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="926">
+        <v>76</v>
+      </c>
+      <c r="B24" t="n" s="931">
+        <v>-0.17301439715652983</v>
+      </c>
+      <c r="C24" t="n" s="932">
+        <v>0.5124335523821733</v>
+      </c>
+      <c r="D24" t="n" s="933">
+        <v>0.8634688465066471</v>
+      </c>
+      <c r="E24" t="n" s="934">
+        <v>0.12992345718318266</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="938">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="952">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s" s="952">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="953">
+        <v>-0.11802297526351871</v>
+      </c>
+      <c r="B29" t="n" s="954">
+        <v>0.8426009772679931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="953">
+        <v>-0.16608532187140596</v>
+      </c>
+      <c r="B30" t="n" s="954">
+        <v>-0.02123439562102884</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="953">
+        <v>0.05335579491401121</v>
+      </c>
+      <c r="B31" t="n" s="954">
+        <v>1.0244755851243479</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="953">
+        <v>0.03064020459228136</v>
+      </c>
+      <c r="B32" t="n" s="954">
+        <v>1.734699207374495</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="953">
+        <v>-0.08632688728349613</v>
+      </c>
+      <c r="B33" t="n" s="954">
+        <v>-0.02123439562102884</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="953">
+        <v>-0.07879186495925253</v>
+      </c>
+      <c r="B34" t="n" s="954">
+        <v>1.3381045341061555</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="953">
+        <v>0.02717038771734099</v>
+      </c>
+      <c r="B35" t="n" s="954">
+        <v>0.8426009772679931</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="953">
+        <v>-0.03634347653695712</v>
+      </c>
+      <c r="B36" t="n" s="954">
+        <v>1.734699207374495</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="953">
+        <v>-0.041702612153835326</v>
+      </c>
+      <c r="B37" t="n" s="954">
+        <v>1.734699207374495</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="953">
+        <v>-0.011023151453957568</v>
+      </c>
+      <c r="B38" t="n" s="954">
+        <v>1.4781430624387621</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="958">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="972">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s" s="972">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="972">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="972">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s" s="972">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s" s="972">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s" s="972">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s" s="972">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="973">
+        <v>10169.0</v>
+      </c>
+      <c r="B43" t="n" s="974">
+        <v>1.0377538E7</v>
+      </c>
+      <c r="C43" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s" s="976">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G43" t="n" s="979">
+        <v>-0.11802297526351871</v>
+      </c>
+      <c r="H43" t="n" s="980">
+        <v>0.8426009772679931</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="973">
+        <v>10174.0</v>
+      </c>
+      <c r="B44" t="n" s="974">
+        <v>1.0276852E7</v>
+      </c>
+      <c r="C44" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s" s="976">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G44" t="n" s="979">
+        <v>-0.16608532187140596</v>
+      </c>
+      <c r="H44" t="n" s="980">
+        <v>-0.02123439562102884</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="973">
+        <v>10184.0</v>
+      </c>
+      <c r="B45" t="n" s="974">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C45" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s" s="976">
+        <v>40</v>
+      </c>
+      <c r="E45" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="978">
+        <v>48</v>
+      </c>
+      <c r="G45" t="n" s="979">
+        <v>0.05335579491401121</v>
+      </c>
+      <c r="H45" t="n" s="980">
+        <v>1.0244755851243479</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="973">
+        <v>10189.0</v>
+      </c>
+      <c r="B46" t="n" s="974">
+        <v>9363926.0</v>
+      </c>
+      <c r="C46" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s" s="976">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="978">
+        <v>48</v>
+      </c>
+      <c r="G46" t="n" s="979">
+        <v>0.03064020459228136</v>
+      </c>
+      <c r="H46" t="n" s="980">
+        <v>1.734699207374495</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="973">
+        <v>10193.0</v>
+      </c>
+      <c r="B47" t="n" s="974">
+        <v>1.0276762E7</v>
+      </c>
+      <c r="C47" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s" s="976">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G47" t="n" s="979">
+        <v>-0.08632688728349613</v>
+      </c>
+      <c r="H47" t="n" s="980">
+        <v>-0.02123439562102884</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="973">
+        <v>10199.0</v>
+      </c>
+      <c r="B48" t="n" s="974">
+        <v>1.0276737E7</v>
+      </c>
+      <c r="C48" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s" s="976">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G48" t="n" s="979">
+        <v>-0.07879186495925253</v>
+      </c>
+      <c r="H48" t="n" s="980">
+        <v>1.3381045341061555</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="973">
+        <v>10201.0</v>
+      </c>
+      <c r="B49" t="n" s="974">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C49" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s" s="976">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G49" t="n" s="979">
+        <v>0.02717038771734099</v>
+      </c>
+      <c r="H49" t="n" s="980">
+        <v>0.8426009772679931</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="973">
+        <v>10206.0</v>
+      </c>
+      <c r="B50" t="n" s="974">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C50" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s" s="976">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G50" t="n" s="979">
+        <v>-0.03634347653695712</v>
+      </c>
+      <c r="H50" t="n" s="980">
+        <v>1.734699207374495</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="973">
+        <v>10218.0</v>
+      </c>
+      <c r="B51" t="n" s="974">
+        <v>9842913.0</v>
+      </c>
+      <c r="C51" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s" s="976">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G51" t="n" s="979">
+        <v>-0.041702612153835326</v>
+      </c>
+      <c r="H51" t="n" s="980">
+        <v>1.734699207374495</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="973">
+        <v>10232.0</v>
+      </c>
+      <c r="B52" t="n" s="974">
+        <v>1.0276974E7</v>
+      </c>
+      <c r="C52" t="s" s="975">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s" s="976">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s" s="977">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s" s="978">
+        <v>47</v>
+      </c>
+      <c r="G52" t="n" s="979">
+        <v>-0.011023151453957568</v>
+      </c>
+      <c r="H52" t="n" s="980">
+        <v>1.4781430624387621</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.0" customWidth="true"/>
+    <col min="2" max="2" width="14.0" customWidth="true"/>
+    <col min="3" max="3" width="14.0" customWidth="true"/>
+    <col min="4" max="4" width="14.0" customWidth="true"/>
+    <col min="5" max="5" width="14.0" customWidth="true"/>
+    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="7" max="7" width="14.0" customWidth="true"/>
+    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="9" max="9" width="14.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="982">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="996">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="s" s="1010">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s" s="1010">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1006">
+        <v>81</v>
+      </c>
+      <c r="B6" t="n" s="1011">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="1012">
+        <v>0.605263157894737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1006">
+        <v>75</v>
+      </c>
+      <c r="B7" t="n" s="1011">
+        <v>0.605263157894737</v>
+      </c>
+      <c r="C7" t="n" s="1012">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1016">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="s" s="1030">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s" s="1030">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1026">
+        <v>81</v>
+      </c>
+      <c r="B12" t="e" s="1031">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" t="n" s="1032">
+        <v>1.3169761689218973</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1026">
+        <v>75</v>
+      </c>
+      <c r="B13" t="n" s="1031">
+        <v>1.3169761689218973</v>
+      </c>
+      <c r="C13" t="e" s="1032">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1036">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="1050">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s" s="1050">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1046">
+        <v>81</v>
+      </c>
+      <c r="B18" t="n" s="1051">
+        <v>0.0</v>
+      </c>
+      <c r="C18" t="n" s="1052">
+        <v>0.27940925808015615</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1046">
+        <v>75</v>
+      </c>
+      <c r="B19" t="n" s="1051">
+        <v>0.27940925808015615</v>
+      </c>
+      <c r="C19" t="n" s="1052">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1056">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="1070">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s" s="1070">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s" s="1070">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s" s="1070">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1066">
+        <v>82</v>
+      </c>
+      <c r="B24" t="n" s="1071">
+        <v>-0.5944319031272908</v>
+      </c>
+      <c r="C24" t="n" s="1072">
+        <v>0.605263157894737</v>
+      </c>
+      <c r="D24" t="n" s="1073">
+        <v>0.9697042519949846</v>
+      </c>
+      <c r="E24" t="n" s="1074">
+        <v>0.27940925808015615</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1078">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1092">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s" s="1092">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="1093">
         <v>3.0</v>
       </c>
-      <c r="B38" t="n" s="394">
-        <v>0.8943229174768339</v>
+      <c r="B29" t="n" s="1094">
+        <v>1.3381045341061555</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="1093">
+        <v>1.0</v>
+      </c>
+      <c r="B30" t="n" s="1094">
+        <v>1.0244755851243479</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="1093">
+        <v>8.0</v>
+      </c>
+      <c r="B31" t="n" s="1094">
+        <v>1.3381045341061555</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="1093">
+        <v>4.0</v>
+      </c>
+      <c r="B32" t="n" s="1094">
+        <v>1.4781430624387621</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="1093">
+        <v>3.0</v>
+      </c>
+      <c r="B33" t="n" s="1094">
+        <v>0.6315069326468057</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1098">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1112">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s" s="1112">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s" s="1112">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s" s="1112">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s" s="1112">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s" s="1112">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s" s="1112">
+        <v>81</v>
+      </c>
+      <c r="H37" t="s" s="1112">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="1113">
+        <v>10176.0</v>
+      </c>
+      <c r="B38" t="n" s="1114">
+        <v>1.0276949E7</v>
+      </c>
+      <c r="C38" t="s" s="1115">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s" s="1116">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s" s="1117">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s" s="1118">
+        <v>47</v>
+      </c>
+      <c r="G38" t="n" s="1119">
+        <v>3.0</v>
+      </c>
+      <c r="H38" t="n" s="1120">
+        <v>1.3381045341061555</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="393">
-        <v>2.0</v>
-      </c>
-      <c r="B39" t="n" s="394">
-        <v>-0.581728733226766</v>
+      <c r="A39" t="n" s="1113">
+        <v>10178.0</v>
+      </c>
+      <c r="B39" t="n" s="1114">
+        <v>8656201.0</v>
+      </c>
+      <c r="C39" t="s" s="1115">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s" s="1116">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s" s="1117">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s" s="1118">
+        <v>48</v>
+      </c>
+      <c r="G39" t="n" s="1119">
+        <v>1.0</v>
+      </c>
+      <c r="H39" t="n" s="1120">
+        <v>1.0244755851243479</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="393">
-        <v>2.0</v>
-      </c>
-      <c r="B40" t="n" s="394">
-        <v>0.8943229174768339</v>
+      <c r="A40" t="n" s="1113">
+        <v>10183.0</v>
+      </c>
+      <c r="B40" t="n" s="1114">
+        <v>1.035203E7</v>
+      </c>
+      <c r="C40" t="s" s="1115">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s" s="1116">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s" s="1117">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s" s="1118">
+        <v>48</v>
+      </c>
+      <c r="G40" t="n" s="1119">
+        <v>8.0</v>
+      </c>
+      <c r="H40" t="n" s="1120">
+        <v>1.3381045341061555</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="393">
-        <v>5.0</v>
-      </c>
-      <c r="B41" t="n" s="394">
-        <v>-0.030134652759936636</v>
+      <c r="A41" t="n" s="1113">
+        <v>10186.0</v>
+      </c>
+      <c r="B41" t="n" s="1114">
+        <v>1.0310551E7</v>
+      </c>
+      <c r="C41" t="s" s="1115">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s" s="1116">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s" s="1117">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s" s="1118">
+        <v>47</v>
+      </c>
+      <c r="G41" t="n" s="1119">
+        <v>4.0</v>
+      </c>
+      <c r="H41" t="n" s="1120">
+        <v>1.4781430624387621</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="393">
-        <v>5.0</v>
-      </c>
-      <c r="B42" t="n" s="394">
-        <v>0.4950446231798232</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="393">
-        <v>6.0</v>
-      </c>
-      <c r="B43" t="n" s="394">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="398">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="412">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s" s="412">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s" s="412">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s" s="412">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s" s="412">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s" s="412">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s" s="412">
-        <v>3</v>
-      </c>
-      <c r="H47" t="s" s="412">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="413">
-        <v>10169.0</v>
-      </c>
-      <c r="B48" t="n" s="414">
-        <v>1.0377538E7</v>
-      </c>
-      <c r="C48" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D48" t="s" s="416">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s" s="417">
+      <c r="A42" t="n" s="1113">
+        <v>10190.0</v>
+      </c>
+      <c r="B42" t="n" s="1114">
+        <v>1.0276907E7</v>
+      </c>
+      <c r="C42" t="s" s="1115">
         <v>37</v>
       </c>
-      <c r="F48" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G48" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H48" t="n" s="420">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="413">
-        <v>10174.0</v>
-      </c>
-      <c r="B49" t="n" s="414">
-        <v>1.0276852E7</v>
-      </c>
-      <c r="C49" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s" s="416">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F49" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G49" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H49" t="n" s="420">
-        <v>-0.4482465433985139</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="413">
-        <v>10175.0</v>
-      </c>
-      <c r="B50" t="n" s="414">
-        <v>1.03107E7</v>
-      </c>
-      <c r="C50" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D50" t="s" s="416">
-        <v>24</v>
-      </c>
-      <c r="E50" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G50" t="n" s="419">
+      <c r="D42" t="s" s="1116">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s" s="1117">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s" s="1118">
+        <v>48</v>
+      </c>
+      <c r="G42" t="n" s="1119">
         <v>3.0</v>
       </c>
-      <c r="H50" t="n" s="420">
-        <v>1.7561459858348463</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="413">
-        <v>10184.0</v>
-      </c>
-      <c r="B51" t="n" s="414">
-        <v>1.0276675E7</v>
-      </c>
-      <c r="C51" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D51" t="s" s="416">
-        <v>25</v>
-      </c>
-      <c r="E51" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F51" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G51" t="n" s="419">
-        <v>4.0</v>
-      </c>
-      <c r="H51" t="n" s="420">
-        <v>0.1251438438279301</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="413">
-        <v>10189.0</v>
-      </c>
-      <c r="B52" t="n" s="414">
-        <v>9363926.0</v>
-      </c>
-      <c r="C52" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D52" t="s" s="416">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F52" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G52" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H52" t="n" s="420">
-        <v>-0.1750174456725396</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="413">
-        <v>10193.0</v>
-      </c>
-      <c r="B53" t="n" s="414">
-        <v>1.0276762E7</v>
-      </c>
-      <c r="C53" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s" s="416">
-        <v>27</v>
-      </c>
-      <c r="E53" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G53" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H53" t="n" s="420">
-        <v>-0.31343622428089174</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="413">
-        <v>10199.0</v>
-      </c>
-      <c r="B54" t="n" s="414">
-        <v>1.0276737E7</v>
-      </c>
-      <c r="C54" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s" s="416">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F54" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G54" t="n" s="419">
-        <v>2.0</v>
-      </c>
-      <c r="H54" t="n" s="420">
-        <v>2.7505191639644373</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n" s="413">
-        <v>10201.0</v>
-      </c>
-      <c r="B55" t="n" s="414">
-        <v>1.0276928E7</v>
-      </c>
-      <c r="C55" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s" s="416">
-        <v>29</v>
-      </c>
-      <c r="E55" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G55" t="n" s="419">
-        <v>3.0</v>
-      </c>
-      <c r="H55" t="n" s="420">
-        <v>0.2967962112053458</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n" s="413">
-        <v>10204.0</v>
-      </c>
-      <c r="B56" t="n" s="414">
-        <v>1.0310471E7</v>
-      </c>
-      <c r="C56" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s" s="416">
-        <v>30</v>
-      </c>
-      <c r="E56" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F56" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G56" t="n" s="419">
-        <v>3.0</v>
-      </c>
-      <c r="H56" t="n" s="420">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n" s="413">
-        <v>10206.0</v>
-      </c>
-      <c r="B57" t="n" s="414">
-        <v>1.0310721E7</v>
-      </c>
-      <c r="C57" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D57" t="s" s="416">
-        <v>31</v>
-      </c>
-      <c r="E57" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F57" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G57" t="n" s="419">
-        <v>3.0</v>
-      </c>
-      <c r="H57" t="n" s="420">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="413">
-        <v>10213.0</v>
-      </c>
-      <c r="B58" t="n" s="414">
-        <v>1.027704E7</v>
-      </c>
-      <c r="C58" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s" s="416">
-        <v>32</v>
-      </c>
-      <c r="E58" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F58" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G58" t="n" s="419">
-        <v>2.0</v>
-      </c>
-      <c r="H58" t="n" s="420">
-        <v>-0.581728733226766</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="413">
-        <v>10215.0</v>
-      </c>
-      <c r="B59" t="n" s="414">
-        <v>9285227.0</v>
-      </c>
-      <c r="C59" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D59" t="s" s="416">
-        <v>33</v>
-      </c>
-      <c r="E59" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F59" t="s" s="418">
-        <v>39</v>
-      </c>
-      <c r="G59" t="n" s="419">
-        <v>2.0</v>
-      </c>
-      <c r="H59" t="n" s="420">
-        <v>0.8943229174768339</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="413">
-        <v>10218.0</v>
-      </c>
-      <c r="B60" t="n" s="414">
-        <v>9842913.0</v>
-      </c>
-      <c r="C60" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s" s="416">
-        <v>34</v>
-      </c>
-      <c r="E60" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G60" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H60" t="n" s="420">
-        <v>-0.030134652759936636</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="413">
-        <v>10223.0</v>
-      </c>
-      <c r="B61" t="n" s="414">
-        <v>9795185.0</v>
-      </c>
-      <c r="C61" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D61" t="s" s="416">
-        <v>35</v>
-      </c>
-      <c r="E61" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F61" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G61" t="n" s="419">
-        <v>5.0</v>
-      </c>
-      <c r="H61" t="n" s="420">
-        <v>0.4950446231798232</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="413">
-        <v>10232.0</v>
-      </c>
-      <c r="B62" t="n" s="414">
-        <v>1.0276974E7</v>
-      </c>
-      <c r="C62" t="s" s="415">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s" s="416">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s" s="417">
-        <v>37</v>
-      </c>
-      <c r="F62" t="s" s="418">
-        <v>38</v>
-      </c>
-      <c r="G62" t="n" s="419">
-        <v>6.0</v>
-      </c>
-      <c r="H62" t="n" s="420">
-        <v>-0.030134652759936636</v>
+      <c r="H42" t="n" s="1120">
+        <v>0.6315069326468057</v>
       </c>
     </row>
   </sheetData>
